--- a/DoE_csv/PhD_MasterDataset_OT_initial.xlsx
+++ b/DoE_csv/PhD_MasterDataset_OT_initial.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ac2349/GitHub/formulations-prep/DoE_csv/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D10E3325-27B4-AD4C-908B-54B1F645F362}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{44773CE8-1A38-0141-96EF-F1D9C9824BBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="30720" windowHeight="19200"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="30720" windowHeight="18740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PhD_MasterDataset_OT_initial" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="100">
   <si>
     <t>ID</t>
   </si>
@@ -212,13 +212,121 @@
   </si>
   <si>
     <t>S42</t>
+  </si>
+  <si>
+    <t>S43</t>
+  </si>
+  <si>
+    <t>S44</t>
+  </si>
+  <si>
+    <t>S45</t>
+  </si>
+  <si>
+    <t>S46</t>
+  </si>
+  <si>
+    <t>S47</t>
+  </si>
+  <si>
+    <t>S48</t>
+  </si>
+  <si>
+    <t>S49</t>
+  </si>
+  <si>
+    <t>S50</t>
+  </si>
+  <si>
+    <t>S51</t>
+  </si>
+  <si>
+    <t>S52</t>
+  </si>
+  <si>
+    <t>S53</t>
+  </si>
+  <si>
+    <t>S54</t>
+  </si>
+  <si>
+    <t>S55</t>
+  </si>
+  <si>
+    <t>S56</t>
+  </si>
+  <si>
+    <t>S57</t>
+  </si>
+  <si>
+    <t>S58</t>
+  </si>
+  <si>
+    <t>S59</t>
+  </si>
+  <si>
+    <t>S60</t>
+  </si>
+  <si>
+    <t>S61</t>
+  </si>
+  <si>
+    <t>S62</t>
+  </si>
+  <si>
+    <t>S63</t>
+  </si>
+  <si>
+    <t>S64</t>
+  </si>
+  <si>
+    <t>S65</t>
+  </si>
+  <si>
+    <t>S66</t>
+  </si>
+  <si>
+    <t>S67</t>
+  </si>
+  <si>
+    <t>S68</t>
+  </si>
+  <si>
+    <t>S69</t>
+  </si>
+  <si>
+    <t>S70</t>
+  </si>
+  <si>
+    <t>S71</t>
+  </si>
+  <si>
+    <t>S72</t>
+  </si>
+  <si>
+    <t>S73</t>
+  </si>
+  <si>
+    <t>S74</t>
+  </si>
+  <si>
+    <t>S75</t>
+  </si>
+  <si>
+    <t>S76</t>
+  </si>
+  <si>
+    <t>S77</t>
+  </si>
+  <si>
+    <t>S78</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="18" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -352,6 +460,18 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="33">
@@ -695,8 +815,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1051,11 +1172,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V43"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:V79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection sqref="A1:V43"/>
+    <sheetView tabSelected="1" topLeftCell="D11" workbookViewId="0">
+      <selection activeCell="V44" sqref="V44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3640,6 +3761,9 @@
       <c r="U38">
         <v>69</v>
       </c>
+      <c r="V38">
+        <v>1.02</v>
+      </c>
     </row>
     <row r="39" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A39">
@@ -3705,6 +3829,9 @@
       <c r="U39">
         <v>69</v>
       </c>
+      <c r="V39">
+        <v>1.0169999999999999</v>
+      </c>
     </row>
     <row r="40" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A40">
@@ -3770,6 +3897,9 @@
       <c r="U40">
         <v>68</v>
       </c>
+      <c r="V40">
+        <v>1.0129999999999999</v>
+      </c>
     </row>
     <row r="41" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A41">
@@ -3835,6 +3965,9 @@
       <c r="U41">
         <v>80</v>
       </c>
+      <c r="V41">
+        <v>1.0089999999999999</v>
+      </c>
     </row>
     <row r="42" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A42">
@@ -3900,6 +4033,9 @@
       <c r="U42">
         <v>74</v>
       </c>
+      <c r="V42">
+        <v>1.006</v>
+      </c>
     </row>
     <row r="43" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A43">
@@ -3965,8 +4101,2244 @@
       <c r="U43">
         <v>68</v>
       </c>
+      <c r="V43">
+        <v>1.018</v>
+      </c>
+    </row>
+    <row r="44" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
+        <v>64</v>
+      </c>
+      <c r="C44" s="1">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <v>0</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
+      <c r="H44">
+        <v>0</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44" s="1">
+        <v>10.5</v>
+      </c>
+      <c r="K44">
+        <v>0</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="M44">
+        <v>0</v>
+      </c>
+      <c r="N44">
+        <v>0</v>
+      </c>
+      <c r="O44" s="1">
+        <v>1.3</v>
+      </c>
+      <c r="P44">
+        <v>0</v>
+      </c>
+      <c r="Q44">
+        <v>0</v>
+      </c>
+      <c r="R44">
+        <v>0</v>
+      </c>
+      <c r="S44">
+        <v>0</v>
+      </c>
+      <c r="T44" s="1">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
+        <v>65</v>
+      </c>
+      <c r="C45" s="1">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45" s="1">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+      <c r="N45">
+        <v>0</v>
+      </c>
+      <c r="O45" s="1">
+        <v>2</v>
+      </c>
+      <c r="P45">
+        <v>0</v>
+      </c>
+      <c r="Q45">
+        <v>0</v>
+      </c>
+      <c r="R45">
+        <v>0</v>
+      </c>
+      <c r="S45">
+        <v>0</v>
+      </c>
+      <c r="T45" s="1">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="46" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46" t="s">
+        <v>66</v>
+      </c>
+      <c r="C46" s="1">
+        <v>12.3</v>
+      </c>
+      <c r="D46">
+        <v>0</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <v>0</v>
+      </c>
+      <c r="G46">
+        <v>0</v>
+      </c>
+      <c r="H46">
+        <v>0</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="J46" s="1">
+        <v>10.3</v>
+      </c>
+      <c r="K46">
+        <v>0</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46">
+        <v>0</v>
+      </c>
+      <c r="N46">
+        <v>0</v>
+      </c>
+      <c r="O46" s="1">
+        <v>1</v>
+      </c>
+      <c r="P46">
+        <v>0</v>
+      </c>
+      <c r="Q46">
+        <v>0</v>
+      </c>
+      <c r="R46">
+        <v>0</v>
+      </c>
+      <c r="S46">
+        <v>0</v>
+      </c>
+      <c r="T46" s="1">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="47" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47" t="s">
+        <v>67</v>
+      </c>
+      <c r="C47" s="1">
+        <v>12.5</v>
+      </c>
+      <c r="D47">
+        <v>0</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="F47">
+        <v>0</v>
+      </c>
+      <c r="G47">
+        <v>0</v>
+      </c>
+      <c r="H47">
+        <v>0</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47" s="1">
+        <v>12.8</v>
+      </c>
+      <c r="K47">
+        <v>0</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+      <c r="M47">
+        <v>0</v>
+      </c>
+      <c r="N47">
+        <v>0</v>
+      </c>
+      <c r="O47" s="1">
+        <v>1.6</v>
+      </c>
+      <c r="P47">
+        <v>0</v>
+      </c>
+      <c r="Q47">
+        <v>0</v>
+      </c>
+      <c r="R47">
+        <v>0</v>
+      </c>
+      <c r="S47">
+        <v>0</v>
+      </c>
+      <c r="T47" s="1">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48" t="s">
+        <v>68</v>
+      </c>
+      <c r="C48" s="1">
+        <v>9.9</v>
+      </c>
+      <c r="D48">
+        <v>0</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="F48">
+        <v>0</v>
+      </c>
+      <c r="G48">
+        <v>0</v>
+      </c>
+      <c r="H48">
+        <v>0</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48" s="1">
+        <v>9.4</v>
+      </c>
+      <c r="K48">
+        <v>0</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+      <c r="M48">
+        <v>0</v>
+      </c>
+      <c r="N48">
+        <v>0</v>
+      </c>
+      <c r="O48" s="1">
+        <v>1.3</v>
+      </c>
+      <c r="P48">
+        <v>0</v>
+      </c>
+      <c r="Q48">
+        <v>0</v>
+      </c>
+      <c r="R48">
+        <v>0</v>
+      </c>
+      <c r="S48">
+        <v>0</v>
+      </c>
+      <c r="T48" s="1">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="49" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49" t="s">
+        <v>69</v>
+      </c>
+      <c r="C49" s="1">
+        <v>11</v>
+      </c>
+      <c r="D49">
+        <v>0</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49" s="1">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="K49">
+        <v>0</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="M49">
+        <v>0</v>
+      </c>
+      <c r="N49">
+        <v>0</v>
+      </c>
+      <c r="O49" s="1">
+        <v>1.7</v>
+      </c>
+      <c r="P49">
+        <v>0</v>
+      </c>
+      <c r="Q49">
+        <v>0</v>
+      </c>
+      <c r="R49">
+        <v>0</v>
+      </c>
+      <c r="S49">
+        <v>0</v>
+      </c>
+      <c r="T49" s="1">
+        <v>4.9000000000000004</v>
+      </c>
+    </row>
+    <row r="50" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50" t="s">
+        <v>70</v>
+      </c>
+      <c r="C50">
+        <v>0</v>
+      </c>
+      <c r="D50" s="1">
+        <v>12.1</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+      <c r="F50">
+        <v>0</v>
+      </c>
+      <c r="G50">
+        <v>0</v>
+      </c>
+      <c r="H50" s="1">
+        <v>12.3</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+      <c r="J50">
+        <v>0</v>
+      </c>
+      <c r="K50">
+        <v>0</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+      <c r="M50">
+        <v>0</v>
+      </c>
+      <c r="N50">
+        <v>0</v>
+      </c>
+      <c r="O50" s="1">
+        <v>2</v>
+      </c>
+      <c r="P50">
+        <v>0</v>
+      </c>
+      <c r="Q50">
+        <v>0</v>
+      </c>
+      <c r="R50">
+        <v>0</v>
+      </c>
+      <c r="S50">
+        <v>0</v>
+      </c>
+      <c r="T50" s="1">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="51" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51" t="s">
+        <v>71</v>
+      </c>
+      <c r="C51">
+        <v>0</v>
+      </c>
+      <c r="D51" s="1">
+        <v>12.9</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+      <c r="G51">
+        <v>0</v>
+      </c>
+      <c r="H51" s="1">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
+      <c r="J51">
+        <v>0</v>
+      </c>
+      <c r="K51">
+        <v>0</v>
+      </c>
+      <c r="L51">
+        <v>0</v>
+      </c>
+      <c r="M51">
+        <v>0</v>
+      </c>
+      <c r="N51">
+        <v>0</v>
+      </c>
+      <c r="O51" s="1">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="P51">
+        <v>0</v>
+      </c>
+      <c r="Q51">
+        <v>0</v>
+      </c>
+      <c r="R51">
+        <v>0</v>
+      </c>
+      <c r="S51">
+        <v>0</v>
+      </c>
+      <c r="T51" s="1">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52" t="s">
+        <v>72</v>
+      </c>
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52" s="1">
+        <v>8.9</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52" s="1">
+        <v>12.5</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+      <c r="M52">
+        <v>0</v>
+      </c>
+      <c r="N52">
+        <v>0</v>
+      </c>
+      <c r="O52" s="1">
+        <v>1.4</v>
+      </c>
+      <c r="P52">
+        <v>0</v>
+      </c>
+      <c r="Q52">
+        <v>0</v>
+      </c>
+      <c r="R52">
+        <v>0</v>
+      </c>
+      <c r="S52">
+        <v>0</v>
+      </c>
+      <c r="T52" s="1">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53" t="s">
+        <v>73</v>
+      </c>
+      <c r="C53">
+        <v>0</v>
+      </c>
+      <c r="D53" s="1">
+        <v>11.3</v>
+      </c>
+      <c r="E53">
+        <v>0</v>
+      </c>
+      <c r="F53">
+        <v>0</v>
+      </c>
+      <c r="G53">
+        <v>0</v>
+      </c>
+      <c r="H53" s="1">
+        <v>9.9</v>
+      </c>
+      <c r="I53">
+        <v>0</v>
+      </c>
+      <c r="J53">
+        <v>0</v>
+      </c>
+      <c r="K53">
+        <v>0</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+      <c r="M53">
+        <v>0</v>
+      </c>
+      <c r="N53">
+        <v>0</v>
+      </c>
+      <c r="O53" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="P53">
+        <v>0</v>
+      </c>
+      <c r="Q53">
+        <v>0</v>
+      </c>
+      <c r="R53">
+        <v>0</v>
+      </c>
+      <c r="S53">
+        <v>0</v>
+      </c>
+      <c r="T53" s="1">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="54" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54" t="s">
+        <v>74</v>
+      </c>
+      <c r="C54">
+        <v>0</v>
+      </c>
+      <c r="D54" s="1">
+        <v>10.1</v>
+      </c>
+      <c r="E54">
+        <v>0</v>
+      </c>
+      <c r="F54">
+        <v>0</v>
+      </c>
+      <c r="G54">
+        <v>0</v>
+      </c>
+      <c r="H54" s="1">
+        <v>12.9</v>
+      </c>
+      <c r="I54">
+        <v>0</v>
+      </c>
+      <c r="J54">
+        <v>0</v>
+      </c>
+      <c r="K54">
+        <v>0</v>
+      </c>
+      <c r="L54">
+        <v>0</v>
+      </c>
+      <c r="M54">
+        <v>0</v>
+      </c>
+      <c r="N54">
+        <v>0</v>
+      </c>
+      <c r="O54" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="P54">
+        <v>0</v>
+      </c>
+      <c r="Q54">
+        <v>0</v>
+      </c>
+      <c r="R54">
+        <v>0</v>
+      </c>
+      <c r="S54">
+        <v>0</v>
+      </c>
+      <c r="T54" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55" t="s">
+        <v>75</v>
+      </c>
+      <c r="C55">
+        <v>0</v>
+      </c>
+      <c r="D55" s="1">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="E55">
+        <v>0</v>
+      </c>
+      <c r="F55">
+        <v>0</v>
+      </c>
+      <c r="G55">
+        <v>0</v>
+      </c>
+      <c r="H55" s="1">
+        <v>12.4</v>
+      </c>
+      <c r="I55">
+        <v>0</v>
+      </c>
+      <c r="J55">
+        <v>0</v>
+      </c>
+      <c r="K55">
+        <v>0</v>
+      </c>
+      <c r="L55">
+        <v>0</v>
+      </c>
+      <c r="M55">
+        <v>0</v>
+      </c>
+      <c r="N55">
+        <v>0</v>
+      </c>
+      <c r="O55" s="1">
+        <v>2.8</v>
+      </c>
+      <c r="P55">
+        <v>0</v>
+      </c>
+      <c r="Q55">
+        <v>0</v>
+      </c>
+      <c r="R55">
+        <v>0</v>
+      </c>
+      <c r="S55">
+        <v>0</v>
+      </c>
+      <c r="T55" s="1">
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="56" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56" t="s">
+        <v>76</v>
+      </c>
+      <c r="C56">
+        <v>0</v>
+      </c>
+      <c r="D56">
+        <v>0</v>
+      </c>
+      <c r="E56" s="1">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="F56">
+        <v>0</v>
+      </c>
+      <c r="G56" s="1">
+        <v>12.7</v>
+      </c>
+      <c r="H56">
+        <v>0</v>
+      </c>
+      <c r="I56">
+        <v>0</v>
+      </c>
+      <c r="J56">
+        <v>0</v>
+      </c>
+      <c r="K56">
+        <v>0</v>
+      </c>
+      <c r="L56">
+        <v>0</v>
+      </c>
+      <c r="M56">
+        <v>0</v>
+      </c>
+      <c r="N56">
+        <v>0</v>
+      </c>
+      <c r="O56" s="1">
+        <v>2.1</v>
+      </c>
+      <c r="P56">
+        <v>0</v>
+      </c>
+      <c r="Q56">
+        <v>0</v>
+      </c>
+      <c r="R56">
+        <v>0</v>
+      </c>
+      <c r="S56">
+        <v>0</v>
+      </c>
+      <c r="T56" s="1">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="57" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57" t="s">
+        <v>77</v>
+      </c>
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57" s="1">
+        <v>10.6</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57" s="1">
+        <v>10.4</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57">
+        <v>0</v>
+      </c>
+      <c r="N57">
+        <v>0</v>
+      </c>
+      <c r="O57" s="1">
+        <v>2.6</v>
+      </c>
+      <c r="P57">
+        <v>0</v>
+      </c>
+      <c r="Q57">
+        <v>0</v>
+      </c>
+      <c r="R57">
+        <v>0</v>
+      </c>
+      <c r="S57">
+        <v>0</v>
+      </c>
+      <c r="T57" s="1">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58" t="s">
+        <v>78</v>
+      </c>
+      <c r="C58">
+        <v>0</v>
+      </c>
+      <c r="D58">
+        <v>0</v>
+      </c>
+      <c r="E58" s="1">
+        <v>11.4</v>
+      </c>
+      <c r="F58">
+        <v>0</v>
+      </c>
+      <c r="G58" s="1">
+        <v>11.4</v>
+      </c>
+      <c r="H58">
+        <v>0</v>
+      </c>
+      <c r="I58">
+        <v>0</v>
+      </c>
+      <c r="J58">
+        <v>0</v>
+      </c>
+      <c r="K58">
+        <v>0</v>
+      </c>
+      <c r="L58">
+        <v>0</v>
+      </c>
+      <c r="M58">
+        <v>0</v>
+      </c>
+      <c r="N58">
+        <v>0</v>
+      </c>
+      <c r="O58" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="P58">
+        <v>0</v>
+      </c>
+      <c r="Q58">
+        <v>0</v>
+      </c>
+      <c r="R58">
+        <v>0</v>
+      </c>
+      <c r="S58">
+        <v>0</v>
+      </c>
+      <c r="T58" s="1">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="59" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59" t="s">
+        <v>79</v>
+      </c>
+      <c r="C59">
+        <v>0</v>
+      </c>
+      <c r="D59">
+        <v>0</v>
+      </c>
+      <c r="E59" s="1">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="F59">
+        <v>0</v>
+      </c>
+      <c r="G59" s="1">
+        <v>9.1</v>
+      </c>
+      <c r="H59">
+        <v>0</v>
+      </c>
+      <c r="I59">
+        <v>0</v>
+      </c>
+      <c r="J59">
+        <v>0</v>
+      </c>
+      <c r="K59">
+        <v>0</v>
+      </c>
+      <c r="L59">
+        <v>0</v>
+      </c>
+      <c r="M59">
+        <v>0</v>
+      </c>
+      <c r="N59">
+        <v>0</v>
+      </c>
+      <c r="O59" s="1">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="P59">
+        <v>0</v>
+      </c>
+      <c r="Q59">
+        <v>0</v>
+      </c>
+      <c r="R59">
+        <v>0</v>
+      </c>
+      <c r="S59">
+        <v>0</v>
+      </c>
+      <c r="T59" s="1">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60" t="s">
+        <v>80</v>
+      </c>
+      <c r="C60">
+        <v>0</v>
+      </c>
+      <c r="D60">
+        <v>0</v>
+      </c>
+      <c r="E60" s="1">
+        <v>12</v>
+      </c>
+      <c r="F60">
+        <v>0</v>
+      </c>
+      <c r="G60" s="1">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="H60">
+        <v>0</v>
+      </c>
+      <c r="I60">
+        <v>0</v>
+      </c>
+      <c r="J60">
+        <v>0</v>
+      </c>
+      <c r="K60">
+        <v>0</v>
+      </c>
+      <c r="L60">
+        <v>0</v>
+      </c>
+      <c r="M60">
+        <v>0</v>
+      </c>
+      <c r="N60">
+        <v>0</v>
+      </c>
+      <c r="O60" s="1">
+        <v>3</v>
+      </c>
+      <c r="P60">
+        <v>0</v>
+      </c>
+      <c r="Q60">
+        <v>0</v>
+      </c>
+      <c r="R60">
+        <v>0</v>
+      </c>
+      <c r="S60">
+        <v>0</v>
+      </c>
+      <c r="T60" s="1">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61" t="s">
+        <v>81</v>
+      </c>
+      <c r="C61">
+        <v>0</v>
+      </c>
+      <c r="D61">
+        <v>0</v>
+      </c>
+      <c r="E61" s="1">
+        <v>9.5</v>
+      </c>
+      <c r="F61">
+        <v>0</v>
+      </c>
+      <c r="G61" s="1">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="H61">
+        <v>0</v>
+      </c>
+      <c r="I61">
+        <v>0</v>
+      </c>
+      <c r="J61">
+        <v>0</v>
+      </c>
+      <c r="K61">
+        <v>0</v>
+      </c>
+      <c r="L61">
+        <v>0</v>
+      </c>
+      <c r="M61">
+        <v>0</v>
+      </c>
+      <c r="N61">
+        <v>0</v>
+      </c>
+      <c r="O61" s="1">
+        <v>2.7</v>
+      </c>
+      <c r="P61">
+        <v>0</v>
+      </c>
+      <c r="Q61">
+        <v>0</v>
+      </c>
+      <c r="R61">
+        <v>0</v>
+      </c>
+      <c r="S61">
+        <v>0</v>
+      </c>
+      <c r="T61" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62" t="s">
+        <v>82</v>
+      </c>
+      <c r="C62">
+        <v>0</v>
+      </c>
+      <c r="D62">
+        <v>0</v>
+      </c>
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <v>0</v>
+      </c>
+      <c r="K62">
+        <v>0</v>
+      </c>
+      <c r="L62" s="1">
+        <v>8.9</v>
+      </c>
+      <c r="M62" s="1">
+        <v>8.4</v>
+      </c>
+      <c r="N62">
+        <v>0</v>
+      </c>
+      <c r="O62" s="1">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="P62">
+        <v>0</v>
+      </c>
+      <c r="Q62">
+        <v>0</v>
+      </c>
+      <c r="R62">
+        <v>0</v>
+      </c>
+      <c r="S62">
+        <v>0</v>
+      </c>
+      <c r="T62" s="1">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="63" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63" t="s">
+        <v>83</v>
+      </c>
+      <c r="C63">
+        <v>0</v>
+      </c>
+      <c r="D63">
+        <v>0</v>
+      </c>
+      <c r="E63">
+        <v>0</v>
+      </c>
+      <c r="F63">
+        <v>0</v>
+      </c>
+      <c r="G63">
+        <v>0</v>
+      </c>
+      <c r="H63">
+        <v>0</v>
+      </c>
+      <c r="I63">
+        <v>0</v>
+      </c>
+      <c r="J63">
+        <v>0</v>
+      </c>
+      <c r="K63">
+        <v>0</v>
+      </c>
+      <c r="L63" s="1">
+        <v>11.3</v>
+      </c>
+      <c r="M63" s="1">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="N63">
+        <v>0</v>
+      </c>
+      <c r="O63" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="P63">
+        <v>0</v>
+      </c>
+      <c r="Q63">
+        <v>0</v>
+      </c>
+      <c r="R63">
+        <v>0</v>
+      </c>
+      <c r="S63">
+        <v>0</v>
+      </c>
+      <c r="T63" s="1">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="64" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64" t="s">
+        <v>84</v>
+      </c>
+      <c r="C64">
+        <v>0</v>
+      </c>
+      <c r="D64">
+        <v>0</v>
+      </c>
+      <c r="E64">
+        <v>0</v>
+      </c>
+      <c r="F64">
+        <v>0</v>
+      </c>
+      <c r="G64">
+        <v>0</v>
+      </c>
+      <c r="H64">
+        <v>0</v>
+      </c>
+      <c r="I64">
+        <v>0</v>
+      </c>
+      <c r="J64">
+        <v>0</v>
+      </c>
+      <c r="K64">
+        <v>0</v>
+      </c>
+      <c r="L64" s="1">
+        <v>10.9</v>
+      </c>
+      <c r="M64" s="1">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="N64">
+        <v>0</v>
+      </c>
+      <c r="O64" s="1">
+        <v>1.6</v>
+      </c>
+      <c r="P64">
+        <v>0</v>
+      </c>
+      <c r="Q64">
+        <v>0</v>
+      </c>
+      <c r="R64">
+        <v>0</v>
+      </c>
+      <c r="S64">
+        <v>0</v>
+      </c>
+      <c r="T64" s="1">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="65" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65" t="s">
+        <v>85</v>
+      </c>
+      <c r="C65">
+        <v>0</v>
+      </c>
+      <c r="D65">
+        <v>0</v>
+      </c>
+      <c r="E65">
+        <v>0</v>
+      </c>
+      <c r="F65">
+        <v>0</v>
+      </c>
+      <c r="G65">
+        <v>0</v>
+      </c>
+      <c r="H65">
+        <v>0</v>
+      </c>
+      <c r="I65">
+        <v>0</v>
+      </c>
+      <c r="J65">
+        <v>0</v>
+      </c>
+      <c r="K65">
+        <v>0</v>
+      </c>
+      <c r="L65" s="1">
+        <v>11.9</v>
+      </c>
+      <c r="M65" s="1">
+        <v>10.5</v>
+      </c>
+      <c r="N65">
+        <v>0</v>
+      </c>
+      <c r="O65" s="1">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="P65">
+        <v>0</v>
+      </c>
+      <c r="Q65">
+        <v>0</v>
+      </c>
+      <c r="R65">
+        <v>0</v>
+      </c>
+      <c r="S65">
+        <v>0</v>
+      </c>
+      <c r="T65" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66" t="s">
+        <v>86</v>
+      </c>
+      <c r="C66">
+        <v>0</v>
+      </c>
+      <c r="D66">
+        <v>0</v>
+      </c>
+      <c r="E66">
+        <v>0</v>
+      </c>
+      <c r="F66">
+        <v>0</v>
+      </c>
+      <c r="G66">
+        <v>0</v>
+      </c>
+      <c r="H66">
+        <v>0</v>
+      </c>
+      <c r="I66">
+        <v>0</v>
+      </c>
+      <c r="J66">
+        <v>0</v>
+      </c>
+      <c r="K66">
+        <v>0</v>
+      </c>
+      <c r="L66" s="1">
+        <v>10.1</v>
+      </c>
+      <c r="M66" s="1">
+        <v>8.1</v>
+      </c>
+      <c r="N66">
+        <v>0</v>
+      </c>
+      <c r="O66" s="1">
+        <v>2.6</v>
+      </c>
+      <c r="P66">
+        <v>0</v>
+      </c>
+      <c r="Q66">
+        <v>0</v>
+      </c>
+      <c r="R66">
+        <v>0</v>
+      </c>
+      <c r="S66">
+        <v>0</v>
+      </c>
+      <c r="T66" s="1">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="67" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67" t="s">
+        <v>87</v>
+      </c>
+      <c r="C67">
+        <v>0</v>
+      </c>
+      <c r="D67">
+        <v>0</v>
+      </c>
+      <c r="E67">
+        <v>0</v>
+      </c>
+      <c r="F67">
+        <v>0</v>
+      </c>
+      <c r="G67">
+        <v>0</v>
+      </c>
+      <c r="H67">
+        <v>0</v>
+      </c>
+      <c r="I67">
+        <v>0</v>
+      </c>
+      <c r="J67">
+        <v>0</v>
+      </c>
+      <c r="K67">
+        <v>0</v>
+      </c>
+      <c r="L67" s="1">
+        <v>10.8</v>
+      </c>
+      <c r="M67" s="1">
+        <v>11.8</v>
+      </c>
+      <c r="N67">
+        <v>0</v>
+      </c>
+      <c r="O67" s="1">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="P67">
+        <v>0</v>
+      </c>
+      <c r="Q67">
+        <v>0</v>
+      </c>
+      <c r="R67">
+        <v>0</v>
+      </c>
+      <c r="S67">
+        <v>0</v>
+      </c>
+      <c r="T67" s="1">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="68" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="B68" t="s">
+        <v>88</v>
+      </c>
+      <c r="C68">
+        <v>0</v>
+      </c>
+      <c r="D68">
+        <v>0</v>
+      </c>
+      <c r="E68">
+        <v>0</v>
+      </c>
+      <c r="F68" s="1">
+        <v>12.8</v>
+      </c>
+      <c r="G68">
+        <v>0</v>
+      </c>
+      <c r="H68">
+        <v>0</v>
+      </c>
+      <c r="I68">
+        <v>0</v>
+      </c>
+      <c r="J68">
+        <v>0</v>
+      </c>
+      <c r="K68">
+        <v>0</v>
+      </c>
+      <c r="L68">
+        <v>0</v>
+      </c>
+      <c r="M68">
+        <v>0</v>
+      </c>
+      <c r="N68" s="1">
+        <v>9.5</v>
+      </c>
+      <c r="O68" s="1">
+        <v>1.9</v>
+      </c>
+      <c r="P68">
+        <v>0</v>
+      </c>
+      <c r="Q68">
+        <v>0</v>
+      </c>
+      <c r="R68">
+        <v>0</v>
+      </c>
+      <c r="S68">
+        <v>0</v>
+      </c>
+      <c r="T68" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="B69" t="s">
+        <v>89</v>
+      </c>
+      <c r="C69">
+        <v>0</v>
+      </c>
+      <c r="D69">
+        <v>0</v>
+      </c>
+      <c r="E69">
+        <v>0</v>
+      </c>
+      <c r="F69" s="1">
+        <v>11.2</v>
+      </c>
+      <c r="G69">
+        <v>0</v>
+      </c>
+      <c r="H69">
+        <v>0</v>
+      </c>
+      <c r="I69">
+        <v>0</v>
+      </c>
+      <c r="J69">
+        <v>0</v>
+      </c>
+      <c r="K69">
+        <v>0</v>
+      </c>
+      <c r="L69">
+        <v>0</v>
+      </c>
+      <c r="M69">
+        <v>0</v>
+      </c>
+      <c r="N69" s="1">
+        <v>11.8</v>
+      </c>
+      <c r="O69" s="1">
+        <v>2.8</v>
+      </c>
+      <c r="P69">
+        <v>0</v>
+      </c>
+      <c r="Q69">
+        <v>0</v>
+      </c>
+      <c r="R69">
+        <v>0</v>
+      </c>
+      <c r="S69">
+        <v>0</v>
+      </c>
+      <c r="T69" s="1">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="70" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="B70" t="s">
+        <v>90</v>
+      </c>
+      <c r="C70">
+        <v>0</v>
+      </c>
+      <c r="D70">
+        <v>0</v>
+      </c>
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70" s="1">
+        <v>9.4</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+      <c r="K70">
+        <v>0</v>
+      </c>
+      <c r="L70">
+        <v>0</v>
+      </c>
+      <c r="M70">
+        <v>0</v>
+      </c>
+      <c r="N70" s="1">
+        <v>11.7</v>
+      </c>
+      <c r="O70" s="1">
+        <v>1.8</v>
+      </c>
+      <c r="P70">
+        <v>0</v>
+      </c>
+      <c r="Q70">
+        <v>0</v>
+      </c>
+      <c r="R70">
+        <v>0</v>
+      </c>
+      <c r="S70">
+        <v>0</v>
+      </c>
+      <c r="T70" s="1">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="71" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="B71" t="s">
+        <v>91</v>
+      </c>
+      <c r="C71">
+        <v>0</v>
+      </c>
+      <c r="D71">
+        <v>0</v>
+      </c>
+      <c r="E71">
+        <v>0</v>
+      </c>
+      <c r="F71" s="1">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="G71">
+        <v>0</v>
+      </c>
+      <c r="H71">
+        <v>0</v>
+      </c>
+      <c r="I71">
+        <v>0</v>
+      </c>
+      <c r="J71">
+        <v>0</v>
+      </c>
+      <c r="K71">
+        <v>0</v>
+      </c>
+      <c r="L71">
+        <v>0</v>
+      </c>
+      <c r="M71">
+        <v>0</v>
+      </c>
+      <c r="N71" s="1">
+        <v>11.1</v>
+      </c>
+      <c r="O71" s="1">
+        <v>2.4</v>
+      </c>
+      <c r="P71">
+        <v>0</v>
+      </c>
+      <c r="Q71">
+        <v>0</v>
+      </c>
+      <c r="R71">
+        <v>0</v>
+      </c>
+      <c r="S71">
+        <v>0</v>
+      </c>
+      <c r="T71" s="1">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="72" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="B72" t="s">
+        <v>92</v>
+      </c>
+      <c r="C72">
+        <v>0</v>
+      </c>
+      <c r="D72">
+        <v>0</v>
+      </c>
+      <c r="E72">
+        <v>0</v>
+      </c>
+      <c r="F72" s="1">
+        <v>10.4</v>
+      </c>
+      <c r="G72">
+        <v>0</v>
+      </c>
+      <c r="H72">
+        <v>0</v>
+      </c>
+      <c r="I72">
+        <v>0</v>
+      </c>
+      <c r="J72">
+        <v>0</v>
+      </c>
+      <c r="K72">
+        <v>0</v>
+      </c>
+      <c r="L72">
+        <v>0</v>
+      </c>
+      <c r="M72">
+        <v>0</v>
+      </c>
+      <c r="N72" s="1">
+        <v>8.1</v>
+      </c>
+      <c r="O72" s="1">
+        <v>1.8</v>
+      </c>
+      <c r="P72">
+        <v>0</v>
+      </c>
+      <c r="Q72">
+        <v>0</v>
+      </c>
+      <c r="R72">
+        <v>0</v>
+      </c>
+      <c r="S72">
+        <v>0</v>
+      </c>
+      <c r="T72" s="1">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="73" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="B73" t="s">
+        <v>93</v>
+      </c>
+      <c r="C73">
+        <v>0</v>
+      </c>
+      <c r="D73">
+        <v>0</v>
+      </c>
+      <c r="E73">
+        <v>0</v>
+      </c>
+      <c r="F73" s="1">
+        <v>11.7</v>
+      </c>
+      <c r="G73">
+        <v>0</v>
+      </c>
+      <c r="H73">
+        <v>0</v>
+      </c>
+      <c r="I73">
+        <v>0</v>
+      </c>
+      <c r="J73">
+        <v>0</v>
+      </c>
+      <c r="K73">
+        <v>0</v>
+      </c>
+      <c r="L73">
+        <v>0</v>
+      </c>
+      <c r="M73">
+        <v>0</v>
+      </c>
+      <c r="N73" s="1">
+        <v>12</v>
+      </c>
+      <c r="O73" s="1">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="P73">
+        <v>0</v>
+      </c>
+      <c r="Q73">
+        <v>0</v>
+      </c>
+      <c r="R73">
+        <v>0</v>
+      </c>
+      <c r="S73">
+        <v>0</v>
+      </c>
+      <c r="T73" s="1">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="74" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A74">
+        <v>73</v>
+      </c>
+      <c r="B74" t="s">
+        <v>94</v>
+      </c>
+      <c r="C74">
+        <v>0</v>
+      </c>
+      <c r="D74">
+        <v>0</v>
+      </c>
+      <c r="E74">
+        <v>0</v>
+      </c>
+      <c r="F74">
+        <v>0</v>
+      </c>
+      <c r="G74">
+        <v>0</v>
+      </c>
+      <c r="H74">
+        <v>0</v>
+      </c>
+      <c r="I74" s="1">
+        <v>9</v>
+      </c>
+      <c r="J74">
+        <v>0</v>
+      </c>
+      <c r="K74" s="1">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="L74">
+        <v>0</v>
+      </c>
+      <c r="M74">
+        <v>0</v>
+      </c>
+      <c r="N74">
+        <v>0</v>
+      </c>
+      <c r="O74" s="1">
+        <v>1.8</v>
+      </c>
+      <c r="P74">
+        <v>0</v>
+      </c>
+      <c r="Q74">
+        <v>0</v>
+      </c>
+      <c r="R74">
+        <v>0</v>
+      </c>
+      <c r="S74">
+        <v>0</v>
+      </c>
+      <c r="T74" s="1">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="75" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A75">
+        <v>74</v>
+      </c>
+      <c r="B75" t="s">
+        <v>95</v>
+      </c>
+      <c r="C75">
+        <v>0</v>
+      </c>
+      <c r="D75">
+        <v>0</v>
+      </c>
+      <c r="E75">
+        <v>0</v>
+      </c>
+      <c r="F75">
+        <v>0</v>
+      </c>
+      <c r="G75">
+        <v>0</v>
+      </c>
+      <c r="H75">
+        <v>0</v>
+      </c>
+      <c r="I75" s="1">
+        <v>11.6</v>
+      </c>
+      <c r="J75">
+        <v>0</v>
+      </c>
+      <c r="K75" s="1">
+        <v>8.5</v>
+      </c>
+      <c r="L75">
+        <v>0</v>
+      </c>
+      <c r="M75">
+        <v>0</v>
+      </c>
+      <c r="N75">
+        <v>0</v>
+      </c>
+      <c r="O75" s="1">
+        <v>2.4</v>
+      </c>
+      <c r="P75">
+        <v>0</v>
+      </c>
+      <c r="Q75">
+        <v>0</v>
+      </c>
+      <c r="R75">
+        <v>0</v>
+      </c>
+      <c r="S75">
+        <v>0</v>
+      </c>
+      <c r="T75" s="1">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="76" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A76">
+        <v>75</v>
+      </c>
+      <c r="B76" t="s">
+        <v>96</v>
+      </c>
+      <c r="C76">
+        <v>0</v>
+      </c>
+      <c r="D76">
+        <v>0</v>
+      </c>
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+      <c r="G76">
+        <v>0</v>
+      </c>
+      <c r="H76">
+        <v>0</v>
+      </c>
+      <c r="I76" s="1">
+        <v>10.9</v>
+      </c>
+      <c r="J76">
+        <v>0</v>
+      </c>
+      <c r="K76" s="1">
+        <v>10.7</v>
+      </c>
+      <c r="L76">
+        <v>0</v>
+      </c>
+      <c r="M76">
+        <v>0</v>
+      </c>
+      <c r="N76">
+        <v>0</v>
+      </c>
+      <c r="O76" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="P76">
+        <v>0</v>
+      </c>
+      <c r="Q76">
+        <v>0</v>
+      </c>
+      <c r="R76">
+        <v>0</v>
+      </c>
+      <c r="S76">
+        <v>0</v>
+      </c>
+      <c r="T76" s="1">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="77" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A77">
+        <v>76</v>
+      </c>
+      <c r="B77" t="s">
+        <v>97</v>
+      </c>
+      <c r="C77">
+        <v>0</v>
+      </c>
+      <c r="D77">
+        <v>0</v>
+      </c>
+      <c r="E77">
+        <v>0</v>
+      </c>
+      <c r="F77">
+        <v>0</v>
+      </c>
+      <c r="G77">
+        <v>0</v>
+      </c>
+      <c r="H77">
+        <v>0</v>
+      </c>
+      <c r="I77" s="1">
+        <v>12.7</v>
+      </c>
+      <c r="J77">
+        <v>0</v>
+      </c>
+      <c r="K77" s="1">
+        <v>11.5</v>
+      </c>
+      <c r="L77">
+        <v>0</v>
+      </c>
+      <c r="M77">
+        <v>0</v>
+      </c>
+      <c r="N77">
+        <v>0</v>
+      </c>
+      <c r="O77" s="1">
+        <v>2.7</v>
+      </c>
+      <c r="P77">
+        <v>0</v>
+      </c>
+      <c r="Q77">
+        <v>0</v>
+      </c>
+      <c r="R77">
+        <v>0</v>
+      </c>
+      <c r="S77">
+        <v>0</v>
+      </c>
+      <c r="T77" s="1">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="78" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A78">
+        <v>77</v>
+      </c>
+      <c r="B78" t="s">
+        <v>98</v>
+      </c>
+      <c r="C78">
+        <v>0</v>
+      </c>
+      <c r="D78">
+        <v>0</v>
+      </c>
+      <c r="E78">
+        <v>0</v>
+      </c>
+      <c r="F78">
+        <v>0</v>
+      </c>
+      <c r="G78">
+        <v>0</v>
+      </c>
+      <c r="H78">
+        <v>0</v>
+      </c>
+      <c r="I78" s="1">
+        <v>10.1</v>
+      </c>
+      <c r="J78">
+        <v>0</v>
+      </c>
+      <c r="K78" s="1">
+        <v>9.6</v>
+      </c>
+      <c r="L78">
+        <v>0</v>
+      </c>
+      <c r="M78">
+        <v>0</v>
+      </c>
+      <c r="N78">
+        <v>0</v>
+      </c>
+      <c r="O78" s="1">
+        <v>2.9</v>
+      </c>
+      <c r="P78">
+        <v>0</v>
+      </c>
+      <c r="Q78">
+        <v>0</v>
+      </c>
+      <c r="R78">
+        <v>0</v>
+      </c>
+      <c r="S78">
+        <v>0</v>
+      </c>
+      <c r="T78" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A79">
+        <v>78</v>
+      </c>
+      <c r="B79" t="s">
+        <v>99</v>
+      </c>
+      <c r="C79">
+        <v>0</v>
+      </c>
+      <c r="D79">
+        <v>0</v>
+      </c>
+      <c r="E79">
+        <v>0</v>
+      </c>
+      <c r="F79">
+        <v>0</v>
+      </c>
+      <c r="G79">
+        <v>0</v>
+      </c>
+      <c r="H79">
+        <v>0</v>
+      </c>
+      <c r="I79" s="1">
+        <v>12.3</v>
+      </c>
+      <c r="J79">
+        <v>0</v>
+      </c>
+      <c r="K79" s="1">
+        <v>8.6</v>
+      </c>
+      <c r="L79">
+        <v>0</v>
+      </c>
+      <c r="M79">
+        <v>0</v>
+      </c>
+      <c r="N79">
+        <v>0</v>
+      </c>
+      <c r="O79" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="P79">
+        <v>0</v>
+      </c>
+      <c r="Q79">
+        <v>0</v>
+      </c>
+      <c r="R79">
+        <v>0</v>
+      </c>
+      <c r="S79">
+        <v>0</v>
+      </c>
+      <c r="T79" s="1">
+        <v>2.8</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/DoE_csv/PhD_MasterDataset_OT_initial.xlsx
+++ b/DoE_csv/PhD_MasterDataset_OT_initial.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ac2349/GitHub/formulations-prep/DoE_csv/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{44773CE8-1A38-0141-96EF-F1D9C9824BBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{89013DAC-864B-304F-95F5-3CCFDC7C54CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="30720" windowHeight="18740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="30720" windowHeight="19200"/>
   </bookViews>
   <sheets>
-    <sheet name="PhD_MasterDataset_OT_initial" sheetId="1" r:id="rId1"/>
+    <sheet name="PhD_MasterDataset_OT_initial_Ja" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -325,8 +325,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="20" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -460,18 +460,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Helvetica Neue"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="33">
@@ -815,9 +803,8 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1172,12 +1159,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D11" workbookViewId="0">
-      <selection activeCell="V44" sqref="V44"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -4112,7 +4097,7 @@
       <c r="B44" t="s">
         <v>64</v>
       </c>
-      <c r="C44" s="1">
+      <c r="C44">
         <v>9.3000000000000007</v>
       </c>
       <c r="D44">
@@ -4133,7 +4118,7 @@
       <c r="I44">
         <v>0</v>
       </c>
-      <c r="J44" s="1">
+      <c r="J44">
         <v>10.5</v>
       </c>
       <c r="K44">
@@ -4148,7 +4133,7 @@
       <c r="N44">
         <v>0</v>
       </c>
-      <c r="O44" s="1">
+      <c r="O44">
         <v>1.3</v>
       </c>
       <c r="P44">
@@ -4163,8 +4148,14 @@
       <c r="S44">
         <v>0</v>
       </c>
-      <c r="T44" s="1">
+      <c r="T44">
         <v>3.2</v>
+      </c>
+      <c r="U44">
+        <v>75.7</v>
+      </c>
+      <c r="V44">
+        <v>1.018</v>
       </c>
     </row>
     <row r="45" spans="1:22" x14ac:dyDescent="0.2">
@@ -4174,7 +4165,7 @@
       <c r="B45" t="s">
         <v>65</v>
       </c>
-      <c r="C45" s="1">
+      <c r="C45">
         <v>8.6999999999999993</v>
       </c>
       <c r="D45">
@@ -4195,7 +4186,7 @@
       <c r="I45">
         <v>0</v>
       </c>
-      <c r="J45" s="1">
+      <c r="J45">
         <v>8.1999999999999993</v>
       </c>
       <c r="K45">
@@ -4210,7 +4201,7 @@
       <c r="N45">
         <v>0</v>
       </c>
-      <c r="O45" s="1">
+      <c r="O45">
         <v>2</v>
       </c>
       <c r="P45">
@@ -4225,8 +4216,14 @@
       <c r="S45">
         <v>0</v>
       </c>
-      <c r="T45" s="1">
+      <c r="T45">
         <v>3.6</v>
+      </c>
+      <c r="U45">
+        <v>77.5</v>
+      </c>
+      <c r="V45">
+        <v>1.016</v>
       </c>
     </row>
     <row r="46" spans="1:22" x14ac:dyDescent="0.2">
@@ -4236,7 +4233,7 @@
       <c r="B46" t="s">
         <v>66</v>
       </c>
-      <c r="C46" s="1">
+      <c r="C46">
         <v>12.3</v>
       </c>
       <c r="D46">
@@ -4257,7 +4254,7 @@
       <c r="I46">
         <v>0</v>
       </c>
-      <c r="J46" s="1">
+      <c r="J46">
         <v>10.3</v>
       </c>
       <c r="K46">
@@ -4272,7 +4269,7 @@
       <c r="N46">
         <v>0</v>
       </c>
-      <c r="O46" s="1">
+      <c r="O46">
         <v>1</v>
       </c>
       <c r="P46">
@@ -4287,8 +4284,14 @@
       <c r="S46">
         <v>0</v>
       </c>
-      <c r="T46" s="1">
+      <c r="T46">
         <v>1.9</v>
+      </c>
+      <c r="U46">
+        <v>74.5</v>
+      </c>
+      <c r="V46">
+        <v>1.0209999999999999</v>
       </c>
     </row>
     <row r="47" spans="1:22" x14ac:dyDescent="0.2">
@@ -4298,7 +4301,7 @@
       <c r="B47" t="s">
         <v>67</v>
       </c>
-      <c r="C47" s="1">
+      <c r="C47">
         <v>12.5</v>
       </c>
       <c r="D47">
@@ -4319,7 +4322,7 @@
       <c r="I47">
         <v>0</v>
       </c>
-      <c r="J47" s="1">
+      <c r="J47">
         <v>12.8</v>
       </c>
       <c r="K47">
@@ -4334,7 +4337,7 @@
       <c r="N47">
         <v>0</v>
       </c>
-      <c r="O47" s="1">
+      <c r="O47">
         <v>1.6</v>
       </c>
       <c r="P47">
@@ -4349,8 +4352,14 @@
       <c r="S47">
         <v>0</v>
       </c>
-      <c r="T47" s="1">
+      <c r="T47">
         <v>4.5</v>
+      </c>
+      <c r="U47">
+        <v>68.599999999999994</v>
+      </c>
+      <c r="V47">
+        <v>1.024</v>
       </c>
     </row>
     <row r="48" spans="1:22" x14ac:dyDescent="0.2">
@@ -4360,7 +4369,7 @@
       <c r="B48" t="s">
         <v>68</v>
       </c>
-      <c r="C48" s="1">
+      <c r="C48">
         <v>9.9</v>
       </c>
       <c r="D48">
@@ -4381,7 +4390,7 @@
       <c r="I48">
         <v>0</v>
       </c>
-      <c r="J48" s="1">
+      <c r="J48">
         <v>9.4</v>
       </c>
       <c r="K48">
@@ -4396,7 +4405,7 @@
       <c r="N48">
         <v>0</v>
       </c>
-      <c r="O48" s="1">
+      <c r="O48">
         <v>1.3</v>
       </c>
       <c r="P48">
@@ -4411,18 +4420,24 @@
       <c r="S48">
         <v>0</v>
       </c>
-      <c r="T48" s="1">
+      <c r="T48">
         <v>3.8</v>
       </c>
-    </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U48">
+        <v>75.599999999999994</v>
+      </c>
+      <c r="V48">
+        <v>1.018</v>
+      </c>
+    </row>
+    <row r="49" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>48</v>
       </c>
       <c r="B49" t="s">
         <v>69</v>
       </c>
-      <c r="C49" s="1">
+      <c r="C49">
         <v>11</v>
       </c>
       <c r="D49">
@@ -4443,7 +4458,7 @@
       <c r="I49">
         <v>0</v>
       </c>
-      <c r="J49" s="1">
+      <c r="J49">
         <v>8.3000000000000007</v>
       </c>
       <c r="K49">
@@ -4458,7 +4473,7 @@
       <c r="N49">
         <v>0</v>
       </c>
-      <c r="O49" s="1">
+      <c r="O49">
         <v>1.7</v>
       </c>
       <c r="P49">
@@ -4473,11 +4488,17 @@
       <c r="S49">
         <v>0</v>
       </c>
-      <c r="T49" s="1">
+      <c r="T49">
         <v>4.9000000000000004</v>
       </c>
-    </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U49">
+        <v>74.099999999999994</v>
+      </c>
+      <c r="V49">
+        <v>1.018</v>
+      </c>
+    </row>
+    <row r="50" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>49</v>
       </c>
@@ -4487,20 +4508,20 @@
       <c r="C50">
         <v>0</v>
       </c>
-      <c r="D50" s="1">
-        <v>12.1</v>
+      <c r="D50">
+        <v>0</v>
       </c>
       <c r="E50">
         <v>0</v>
       </c>
       <c r="F50">
-        <v>0</v>
+        <v>12.8</v>
       </c>
       <c r="G50">
         <v>0</v>
       </c>
-      <c r="H50" s="1">
-        <v>12.3</v>
+      <c r="H50">
+        <v>0</v>
       </c>
       <c r="I50">
         <v>0</v>
@@ -4518,10 +4539,10 @@
         <v>0</v>
       </c>
       <c r="N50">
-        <v>0</v>
-      </c>
-      <c r="O50" s="1">
-        <v>2</v>
+        <v>9.5</v>
+      </c>
+      <c r="O50">
+        <v>1.9</v>
       </c>
       <c r="P50">
         <v>0</v>
@@ -4535,11 +4556,17 @@
       <c r="S50">
         <v>0</v>
       </c>
-      <c r="T50" s="1">
-        <v>2.2999999999999998</v>
-      </c>
-    </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="T50">
+        <v>3</v>
+      </c>
+      <c r="U50">
+        <v>72.8</v>
+      </c>
+      <c r="V50">
+        <v>1.0069999999999999</v>
+      </c>
+    </row>
+    <row r="51" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>50</v>
       </c>
@@ -4549,20 +4576,20 @@
       <c r="C51">
         <v>0</v>
       </c>
-      <c r="D51" s="1">
-        <v>12.9</v>
+      <c r="D51">
+        <v>0</v>
       </c>
       <c r="E51">
         <v>0</v>
       </c>
       <c r="F51">
-        <v>0</v>
+        <v>11.2</v>
       </c>
       <c r="G51">
         <v>0</v>
       </c>
-      <c r="H51" s="1">
-        <v>9.6999999999999993</v>
+      <c r="H51">
+        <v>0</v>
       </c>
       <c r="I51">
         <v>0</v>
@@ -4580,10 +4607,10 @@
         <v>0</v>
       </c>
       <c r="N51">
-        <v>0</v>
-      </c>
-      <c r="O51" s="1">
-        <v>2.2000000000000002</v>
+        <v>11.8</v>
+      </c>
+      <c r="O51">
+        <v>2.8</v>
       </c>
       <c r="P51">
         <v>0</v>
@@ -4597,11 +4624,17 @@
       <c r="S51">
         <v>0</v>
       </c>
-      <c r="T51" s="1">
-        <v>4.3</v>
-      </c>
-    </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="T51">
+        <v>2.6</v>
+      </c>
+      <c r="U51">
+        <v>71.599999999999994</v>
+      </c>
+      <c r="V51">
+        <v>1.006</v>
+      </c>
+    </row>
+    <row r="52" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>51</v>
       </c>
@@ -4611,20 +4644,20 @@
       <c r="C52">
         <v>0</v>
       </c>
-      <c r="D52" s="1">
-        <v>8.9</v>
+      <c r="D52">
+        <v>0</v>
       </c>
       <c r="E52">
         <v>0</v>
       </c>
       <c r="F52">
-        <v>0</v>
+        <v>9.4</v>
       </c>
       <c r="G52">
         <v>0</v>
       </c>
-      <c r="H52" s="1">
-        <v>12.5</v>
+      <c r="H52">
+        <v>0</v>
       </c>
       <c r="I52">
         <v>0</v>
@@ -4642,10 +4675,10 @@
         <v>0</v>
       </c>
       <c r="N52">
-        <v>0</v>
-      </c>
-      <c r="O52" s="1">
-        <v>1.4</v>
+        <v>11.7</v>
+      </c>
+      <c r="O52">
+        <v>1.8</v>
       </c>
       <c r="P52">
         <v>0</v>
@@ -4659,11 +4692,17 @@
       <c r="S52">
         <v>0</v>
       </c>
-      <c r="T52" s="1">
-        <v>1.4</v>
-      </c>
-    </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="T52">
+        <v>3.3</v>
+      </c>
+      <c r="U52">
+        <v>73.8</v>
+      </c>
+      <c r="V52">
+        <v>1.0029999999999999</v>
+      </c>
+    </row>
+    <row r="53" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>52</v>
       </c>
@@ -4673,20 +4712,20 @@
       <c r="C53">
         <v>0</v>
       </c>
-      <c r="D53" s="1">
-        <v>11.3</v>
+      <c r="D53">
+        <v>0</v>
       </c>
       <c r="E53">
         <v>0</v>
       </c>
       <c r="F53">
-        <v>0</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="G53">
         <v>0</v>
       </c>
-      <c r="H53" s="1">
-        <v>9.9</v>
+      <c r="H53">
+        <v>0</v>
       </c>
       <c r="I53">
         <v>0</v>
@@ -4704,10 +4743,10 @@
         <v>0</v>
       </c>
       <c r="N53">
-        <v>0</v>
-      </c>
-      <c r="O53" s="1">
-        <v>1.5</v>
+        <v>11.1</v>
+      </c>
+      <c r="O53">
+        <v>2.4</v>
       </c>
       <c r="P53">
         <v>0</v>
@@ -4721,11 +4760,17 @@
       <c r="S53">
         <v>0</v>
       </c>
-      <c r="T53" s="1">
-        <v>1.1000000000000001</v>
-      </c>
-    </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="T53">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="U53">
+        <v>73.599999999999994</v>
+      </c>
+      <c r="V53">
+        <v>1.002</v>
+      </c>
+    </row>
+    <row r="54" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>53</v>
       </c>
@@ -4735,20 +4780,20 @@
       <c r="C54">
         <v>0</v>
       </c>
-      <c r="D54" s="1">
-        <v>10.1</v>
+      <c r="D54">
+        <v>0</v>
       </c>
       <c r="E54">
         <v>0</v>
       </c>
       <c r="F54">
-        <v>0</v>
+        <v>10.4</v>
       </c>
       <c r="G54">
         <v>0</v>
       </c>
-      <c r="H54" s="1">
-        <v>12.9</v>
+      <c r="H54">
+        <v>0</v>
       </c>
       <c r="I54">
         <v>0</v>
@@ -4766,10 +4811,10 @@
         <v>0</v>
       </c>
       <c r="N54">
-        <v>0</v>
-      </c>
-      <c r="O54" s="1">
-        <v>2.5</v>
+        <v>8.1</v>
+      </c>
+      <c r="O54">
+        <v>1.8</v>
       </c>
       <c r="P54">
         <v>0</v>
@@ -4783,11 +4828,17 @@
       <c r="S54">
         <v>0</v>
       </c>
-      <c r="T54" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="T54">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="U54">
+        <v>78.599999999999994</v>
+      </c>
+      <c r="V54">
+        <v>1.006</v>
+      </c>
+    </row>
+    <row r="55" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>54</v>
       </c>
@@ -4797,20 +4848,20 @@
       <c r="C55">
         <v>0</v>
       </c>
-      <c r="D55" s="1">
-        <v>8.6999999999999993</v>
+      <c r="D55">
+        <v>0</v>
       </c>
       <c r="E55">
         <v>0</v>
       </c>
       <c r="F55">
-        <v>0</v>
+        <v>11.7</v>
       </c>
       <c r="G55">
         <v>0</v>
       </c>
-      <c r="H55" s="1">
-        <v>12.4</v>
+      <c r="H55">
+        <v>0</v>
       </c>
       <c r="I55">
         <v>0</v>
@@ -4828,10 +4879,10 @@
         <v>0</v>
       </c>
       <c r="N55">
-        <v>0</v>
-      </c>
-      <c r="O55" s="1">
-        <v>2.8</v>
+        <v>12</v>
+      </c>
+      <c r="O55">
+        <v>2.2999999999999998</v>
       </c>
       <c r="P55">
         <v>0</v>
@@ -4845,11 +4896,17 @@
       <c r="S55">
         <v>0</v>
       </c>
-      <c r="T55" s="1">
-        <v>4.0999999999999996</v>
-      </c>
-    </row>
-    <row r="56" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="T55">
+        <v>3.4</v>
+      </c>
+      <c r="U55">
+        <v>70.599999999999994</v>
+      </c>
+      <c r="V55">
+        <v>1.0049999999999999</v>
+      </c>
+    </row>
+    <row r="56" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>55</v>
       </c>
@@ -4862,26 +4919,26 @@
       <c r="D56">
         <v>0</v>
       </c>
-      <c r="E56" s="1">
-        <v>9.6999999999999993</v>
+      <c r="E56">
+        <v>0</v>
       </c>
       <c r="F56">
         <v>0</v>
       </c>
-      <c r="G56" s="1">
-        <v>12.7</v>
+      <c r="G56">
+        <v>0</v>
       </c>
       <c r="H56">
         <v>0</v>
       </c>
       <c r="I56">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="J56">
         <v>0</v>
       </c>
       <c r="K56">
-        <v>0</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="L56">
         <v>0</v>
@@ -4892,8 +4949,8 @@
       <c r="N56">
         <v>0</v>
       </c>
-      <c r="O56" s="1">
-        <v>2.1</v>
+      <c r="O56">
+        <v>1.8</v>
       </c>
       <c r="P56">
         <v>0</v>
@@ -4907,11 +4964,17 @@
       <c r="S56">
         <v>0</v>
       </c>
-      <c r="T56" s="1">
-        <v>1.9</v>
-      </c>
-    </row>
-    <row r="57" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="T56">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="U56">
+        <v>74.599999999999994</v>
+      </c>
+      <c r="V56">
+        <v>1.0069999999999999</v>
+      </c>
+    </row>
+    <row r="57" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>56</v>
       </c>
@@ -4924,26 +4987,26 @@
       <c r="D57">
         <v>0</v>
       </c>
-      <c r="E57" s="1">
-        <v>10.6</v>
+      <c r="E57">
+        <v>0</v>
       </c>
       <c r="F57">
         <v>0</v>
       </c>
-      <c r="G57" s="1">
-        <v>10.4</v>
+      <c r="G57">
+        <v>0</v>
       </c>
       <c r="H57">
         <v>0</v>
       </c>
       <c r="I57">
-        <v>0</v>
+        <v>11.6</v>
       </c>
       <c r="J57">
         <v>0</v>
       </c>
       <c r="K57">
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="L57">
         <v>0</v>
@@ -4954,8 +5017,8 @@
       <c r="N57">
         <v>0</v>
       </c>
-      <c r="O57" s="1">
-        <v>2.6</v>
+      <c r="O57">
+        <v>2.4</v>
       </c>
       <c r="P57">
         <v>0</v>
@@ -4969,11 +5032,17 @@
       <c r="S57">
         <v>0</v>
       </c>
-      <c r="T57" s="1">
-        <v>4.2</v>
-      </c>
-    </row>
-    <row r="58" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="T57">
+        <v>1.6</v>
+      </c>
+      <c r="U57">
+        <v>75.900000000000006</v>
+      </c>
+      <c r="V57">
+        <v>1.01</v>
+      </c>
+    </row>
+    <row r="58" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>57</v>
       </c>
@@ -4986,26 +5055,26 @@
       <c r="D58">
         <v>0</v>
       </c>
-      <c r="E58" s="1">
-        <v>11.4</v>
+      <c r="E58">
+        <v>0</v>
       </c>
       <c r="F58">
         <v>0</v>
       </c>
-      <c r="G58" s="1">
-        <v>11.4</v>
+      <c r="G58">
+        <v>0</v>
       </c>
       <c r="H58">
         <v>0</v>
       </c>
       <c r="I58">
-        <v>0</v>
+        <v>10.9</v>
       </c>
       <c r="J58">
         <v>0</v>
       </c>
       <c r="K58">
-        <v>0</v>
+        <v>10.7</v>
       </c>
       <c r="L58">
         <v>0</v>
@@ -5016,8 +5085,8 @@
       <c r="N58">
         <v>0</v>
       </c>
-      <c r="O58" s="1">
-        <v>1.2</v>
+      <c r="O58">
+        <v>2.5</v>
       </c>
       <c r="P58">
         <v>0</v>
@@ -5031,11 +5100,17 @@
       <c r="S58">
         <v>0</v>
       </c>
-      <c r="T58" s="1">
-        <v>4.7</v>
-      </c>
-    </row>
-    <row r="59" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="T58">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="U58">
+        <v>73.599999999999994</v>
+      </c>
+      <c r="V58">
+        <v>1.01</v>
+      </c>
+    </row>
+    <row r="59" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>58</v>
       </c>
@@ -5048,26 +5123,26 @@
       <c r="D59">
         <v>0</v>
       </c>
-      <c r="E59" s="1">
-        <v>9.1999999999999993</v>
+      <c r="E59">
+        <v>0</v>
       </c>
       <c r="F59">
         <v>0</v>
       </c>
-      <c r="G59" s="1">
-        <v>9.1</v>
+      <c r="G59">
+        <v>0</v>
       </c>
       <c r="H59">
         <v>0</v>
       </c>
       <c r="I59">
-        <v>0</v>
+        <v>12.7</v>
       </c>
       <c r="J59">
         <v>0</v>
       </c>
       <c r="K59">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="L59">
         <v>0</v>
@@ -5078,8 +5153,8 @@
       <c r="N59">
         <v>0</v>
       </c>
-      <c r="O59" s="1">
-        <v>2.2999999999999998</v>
+      <c r="O59">
+        <v>2.7</v>
       </c>
       <c r="P59">
         <v>0</v>
@@ -5093,11 +5168,17 @@
       <c r="S59">
         <v>0</v>
       </c>
-      <c r="T59" s="1">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="60" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="T59">
+        <v>1.3</v>
+      </c>
+      <c r="U59">
+        <v>71.8</v>
+      </c>
+      <c r="V59">
+        <v>1.012</v>
+      </c>
+    </row>
+    <row r="60" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>59</v>
       </c>
@@ -5110,26 +5191,26 @@
       <c r="D60">
         <v>0</v>
       </c>
-      <c r="E60" s="1">
-        <v>12</v>
+      <c r="E60">
+        <v>0</v>
       </c>
       <c r="F60">
         <v>0</v>
       </c>
-      <c r="G60" s="1">
-        <v>9.1999999999999993</v>
+      <c r="G60">
+        <v>0</v>
       </c>
       <c r="H60">
         <v>0</v>
       </c>
       <c r="I60">
-        <v>0</v>
+        <v>10.1</v>
       </c>
       <c r="J60">
         <v>0</v>
       </c>
       <c r="K60">
-        <v>0</v>
+        <v>9.6</v>
       </c>
       <c r="L60">
         <v>0</v>
@@ -5140,8 +5221,8 @@
       <c r="N60">
         <v>0</v>
       </c>
-      <c r="O60" s="1">
-        <v>3</v>
+      <c r="O60">
+        <v>2.9</v>
       </c>
       <c r="P60">
         <v>0</v>
@@ -5155,11 +5236,17 @@
       <c r="S60">
         <v>0</v>
       </c>
-      <c r="T60" s="1">
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="61" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="T60">
+        <v>2</v>
+      </c>
+      <c r="U60">
+        <v>75.400000000000006</v>
+      </c>
+      <c r="V60">
+        <v>1.01</v>
+      </c>
+    </row>
+    <row r="61" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>60</v>
       </c>
@@ -5172,26 +5259,26 @@
       <c r="D61">
         <v>0</v>
       </c>
-      <c r="E61" s="1">
-        <v>9.5</v>
+      <c r="E61">
+        <v>0</v>
       </c>
       <c r="F61">
         <v>0</v>
       </c>
-      <c r="G61" s="1">
-        <v>8.8000000000000007</v>
+      <c r="G61">
+        <v>0</v>
       </c>
       <c r="H61">
         <v>0</v>
       </c>
       <c r="I61">
-        <v>0</v>
+        <v>12.3</v>
       </c>
       <c r="J61">
         <v>0</v>
       </c>
       <c r="K61">
-        <v>0</v>
+        <v>8.6</v>
       </c>
       <c r="L61">
         <v>0</v>
@@ -5202,8 +5289,8 @@
       <c r="N61">
         <v>0</v>
       </c>
-      <c r="O61" s="1">
-        <v>2.7</v>
+      <c r="O61">
+        <v>1.5</v>
       </c>
       <c r="P61">
         <v>0</v>
@@ -5217,11 +5304,17 @@
       <c r="S61">
         <v>0</v>
       </c>
-      <c r="T61" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="62" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="T61">
+        <v>2.8</v>
+      </c>
+      <c r="U61">
+        <v>74.8</v>
+      </c>
+      <c r="V61">
+        <v>1.0089999999999999</v>
+      </c>
+    </row>
+    <row r="62" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>61</v>
       </c>
@@ -5255,16 +5348,16 @@
       <c r="K62">
         <v>0</v>
       </c>
-      <c r="L62" s="1">
+      <c r="L62">
         <v>8.9</v>
       </c>
-      <c r="M62" s="1">
+      <c r="M62">
         <v>8.4</v>
       </c>
       <c r="N62">
         <v>0</v>
       </c>
-      <c r="O62" s="1">
+      <c r="O62">
         <v>1.1000000000000001</v>
       </c>
       <c r="P62">
@@ -5279,11 +5372,17 @@
       <c r="S62">
         <v>0</v>
       </c>
-      <c r="T62" s="1">
+      <c r="T62">
         <v>2.7</v>
       </c>
-    </row>
-    <row r="63" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U62">
+        <v>78.900000000000006</v>
+      </c>
+      <c r="V62">
+        <v>1.0049999999999999</v>
+      </c>
+    </row>
+    <row r="63" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>62</v>
       </c>
@@ -5317,16 +5416,16 @@
       <c r="K63">
         <v>0</v>
       </c>
-      <c r="L63" s="1">
+      <c r="L63">
         <v>11.3</v>
       </c>
-      <c r="M63" s="1">
+      <c r="M63">
         <v>10.199999999999999</v>
       </c>
       <c r="N63">
         <v>0</v>
       </c>
-      <c r="O63" s="1">
+      <c r="O63">
         <v>1.2</v>
       </c>
       <c r="P63">
@@ -5341,11 +5440,17 @@
       <c r="S63">
         <v>0</v>
       </c>
-      <c r="T63" s="1">
+      <c r="T63">
         <v>2.2000000000000002</v>
       </c>
-    </row>
-    <row r="64" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U63">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="V63">
+        <v>1.0069999999999999</v>
+      </c>
+    </row>
+    <row r="64" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>63</v>
       </c>
@@ -5379,16 +5484,16 @@
       <c r="K64">
         <v>0</v>
       </c>
-      <c r="L64" s="1">
+      <c r="L64">
         <v>10.9</v>
       </c>
-      <c r="M64" s="1">
+      <c r="M64">
         <v>8.3000000000000007</v>
       </c>
       <c r="N64">
         <v>0</v>
       </c>
-      <c r="O64" s="1">
+      <c r="O64">
         <v>1.6</v>
       </c>
       <c r="P64">
@@ -5403,11 +5508,17 @@
       <c r="S64">
         <v>0</v>
       </c>
-      <c r="T64" s="1">
+      <c r="T64">
         <v>1.8</v>
       </c>
-    </row>
-    <row r="65" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U64">
+        <v>77.400000000000006</v>
+      </c>
+      <c r="V64">
+        <v>1.0069999999999999</v>
+      </c>
+    </row>
+    <row r="65" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>64</v>
       </c>
@@ -5441,16 +5552,16 @@
       <c r="K65">
         <v>0</v>
       </c>
-      <c r="L65" s="1">
+      <c r="L65">
         <v>11.9</v>
       </c>
-      <c r="M65" s="1">
+      <c r="M65">
         <v>10.5</v>
       </c>
       <c r="N65">
         <v>0</v>
       </c>
-      <c r="O65" s="1">
+      <c r="O65">
         <v>1.1000000000000001</v>
       </c>
       <c r="P65">
@@ -5465,11 +5576,17 @@
       <c r="S65">
         <v>0</v>
       </c>
-      <c r="T65" s="1">
+      <c r="T65">
         <v>4</v>
       </c>
-    </row>
-    <row r="66" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U65">
+        <v>72.5</v>
+      </c>
+      <c r="V65">
+        <v>1.0069999999999999</v>
+      </c>
+    </row>
+    <row r="66" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>65</v>
       </c>
@@ -5503,16 +5620,16 @@
       <c r="K66">
         <v>0</v>
       </c>
-      <c r="L66" s="1">
+      <c r="L66">
         <v>10.1</v>
       </c>
-      <c r="M66" s="1">
+      <c r="M66">
         <v>8.1</v>
       </c>
       <c r="N66">
         <v>0</v>
       </c>
-      <c r="O66" s="1">
+      <c r="O66">
         <v>2.6</v>
       </c>
       <c r="P66">
@@ -5527,11 +5644,17 @@
       <c r="S66">
         <v>0</v>
       </c>
-      <c r="T66" s="1">
+      <c r="T66">
         <v>2.5</v>
       </c>
-    </row>
-    <row r="67" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U66">
+        <v>76.7</v>
+      </c>
+      <c r="V66">
+        <v>1.008</v>
+      </c>
+    </row>
+    <row r="67" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>66</v>
       </c>
@@ -5565,16 +5688,16 @@
       <c r="K67">
         <v>0</v>
       </c>
-      <c r="L67" s="1">
+      <c r="L67">
         <v>10.8</v>
       </c>
-      <c r="M67" s="1">
+      <c r="M67">
         <v>11.8</v>
       </c>
       <c r="N67">
         <v>0</v>
       </c>
-      <c r="O67" s="1">
+      <c r="O67">
         <v>2.2000000000000002</v>
       </c>
       <c r="P67">
@@ -5589,11 +5712,17 @@
       <c r="S67">
         <v>0</v>
       </c>
-      <c r="T67" s="1">
+      <c r="T67">
         <v>3.7</v>
       </c>
-    </row>
-    <row r="68" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U67">
+        <v>71.5</v>
+      </c>
+      <c r="V67">
+        <v>1.008</v>
+      </c>
+    </row>
+    <row r="68" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>67</v>
       </c>
@@ -5604,19 +5733,19 @@
         <v>0</v>
       </c>
       <c r="D68">
-        <v>0</v>
+        <v>12.1</v>
       </c>
       <c r="E68">
         <v>0</v>
       </c>
-      <c r="F68" s="1">
-        <v>12.8</v>
+      <c r="F68">
+        <v>0</v>
       </c>
       <c r="G68">
         <v>0</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>12.3</v>
       </c>
       <c r="I68">
         <v>0</v>
@@ -5633,11 +5762,11 @@
       <c r="M68">
         <v>0</v>
       </c>
-      <c r="N68" s="1">
-        <v>9.5</v>
-      </c>
-      <c r="O68" s="1">
-        <v>1.9</v>
+      <c r="N68">
+        <v>0</v>
+      </c>
+      <c r="O68">
+        <v>2</v>
       </c>
       <c r="P68">
         <v>0</v>
@@ -5651,11 +5780,17 @@
       <c r="S68">
         <v>0</v>
       </c>
-      <c r="T68" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="69" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="T68">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="U68">
+        <v>71.3</v>
+      </c>
+      <c r="V68">
+        <v>1.0269999999999999</v>
+      </c>
+    </row>
+    <row r="69" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>68</v>
       </c>
@@ -5666,19 +5801,19 @@
         <v>0</v>
       </c>
       <c r="D69">
-        <v>0</v>
+        <v>12.9</v>
       </c>
       <c r="E69">
         <v>0</v>
       </c>
-      <c r="F69" s="1">
-        <v>11.2</v>
+      <c r="F69">
+        <v>0</v>
       </c>
       <c r="G69">
         <v>0</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="I69">
         <v>0</v>
@@ -5695,11 +5830,11 @@
       <c r="M69">
         <v>0</v>
       </c>
-      <c r="N69" s="1">
-        <v>11.8</v>
-      </c>
-      <c r="O69" s="1">
-        <v>2.8</v>
+      <c r="N69">
+        <v>0</v>
+      </c>
+      <c r="O69">
+        <v>2.2000000000000002</v>
       </c>
       <c r="P69">
         <v>0</v>
@@ -5713,11 +5848,17 @@
       <c r="S69">
         <v>0</v>
       </c>
-      <c r="T69" s="1">
-        <v>2.6</v>
-      </c>
-    </row>
-    <row r="70" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="T69">
+        <v>4.3</v>
+      </c>
+      <c r="U69">
+        <v>70.900000000000006</v>
+      </c>
+      <c r="V69">
+        <v>1.0249999999999999</v>
+      </c>
+    </row>
+    <row r="70" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>69</v>
       </c>
@@ -5728,19 +5869,19 @@
         <v>0</v>
       </c>
       <c r="D70">
-        <v>0</v>
+        <v>8.9</v>
       </c>
       <c r="E70">
         <v>0</v>
       </c>
-      <c r="F70" s="1">
-        <v>9.4</v>
+      <c r="F70">
+        <v>0</v>
       </c>
       <c r="G70">
         <v>0</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="I70">
         <v>0</v>
@@ -5757,11 +5898,11 @@
       <c r="M70">
         <v>0</v>
       </c>
-      <c r="N70" s="1">
-        <v>11.7</v>
-      </c>
-      <c r="O70" s="1">
-        <v>1.8</v>
+      <c r="N70">
+        <v>0</v>
+      </c>
+      <c r="O70">
+        <v>1.4</v>
       </c>
       <c r="P70">
         <v>0</v>
@@ -5775,11 +5916,17 @@
       <c r="S70">
         <v>0</v>
       </c>
-      <c r="T70" s="1">
-        <v>3.3</v>
-      </c>
-    </row>
-    <row r="71" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="T70">
+        <v>1.4</v>
+      </c>
+      <c r="U70">
+        <v>75.8</v>
+      </c>
+      <c r="V70">
+        <v>1.022</v>
+      </c>
+    </row>
+    <row r="71" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>70</v>
       </c>
@@ -5790,19 +5937,19 @@
         <v>0</v>
       </c>
       <c r="D71">
-        <v>0</v>
+        <v>11.3</v>
       </c>
       <c r="E71">
         <v>0</v>
       </c>
-      <c r="F71" s="1">
-        <v>8.3000000000000007</v>
+      <c r="F71">
+        <v>0</v>
       </c>
       <c r="G71">
         <v>0</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>9.9</v>
       </c>
       <c r="I71">
         <v>0</v>
@@ -5819,11 +5966,11 @@
       <c r="M71">
         <v>0</v>
       </c>
-      <c r="N71" s="1">
-        <v>11.1</v>
-      </c>
-      <c r="O71" s="1">
-        <v>2.4</v>
+      <c r="N71">
+        <v>0</v>
+      </c>
+      <c r="O71">
+        <v>1.5</v>
       </c>
       <c r="P71">
         <v>0</v>
@@ -5837,11 +5984,17 @@
       <c r="S71">
         <v>0</v>
       </c>
-      <c r="T71" s="1">
-        <v>4.5999999999999996</v>
-      </c>
-    </row>
-    <row r="72" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="T71">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="U71">
+        <v>76.2</v>
+      </c>
+      <c r="V71">
+        <v>1.0229999999999999</v>
+      </c>
+    </row>
+    <row r="72" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>71</v>
       </c>
@@ -5852,19 +6005,19 @@
         <v>0</v>
       </c>
       <c r="D72">
-        <v>0</v>
+        <v>10.1</v>
       </c>
       <c r="E72">
         <v>0</v>
       </c>
-      <c r="F72" s="1">
-        <v>10.4</v>
+      <c r="F72">
+        <v>0</v>
       </c>
       <c r="G72">
         <v>0</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>12.9</v>
       </c>
       <c r="I72">
         <v>0</v>
@@ -5881,11 +6034,11 @@
       <c r="M72">
         <v>0</v>
       </c>
-      <c r="N72" s="1">
-        <v>8.1</v>
-      </c>
-      <c r="O72" s="1">
-        <v>1.8</v>
+      <c r="N72">
+        <v>0</v>
+      </c>
+      <c r="O72">
+        <v>2.5</v>
       </c>
       <c r="P72">
         <v>0</v>
@@ -5899,11 +6052,17 @@
       <c r="S72">
         <v>0</v>
       </c>
-      <c r="T72" s="1">
-        <v>1.1000000000000001</v>
-      </c>
-    </row>
-    <row r="73" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="T72">
+        <v>3</v>
+      </c>
+      <c r="U72">
+        <v>71.5</v>
+      </c>
+      <c r="V72">
+        <v>1.0249999999999999</v>
+      </c>
+    </row>
+    <row r="73" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>72</v>
       </c>
@@ -5914,19 +6073,19 @@
         <v>0</v>
       </c>
       <c r="D73">
-        <v>0</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="E73">
         <v>0</v>
       </c>
-      <c r="F73" s="1">
-        <v>11.7</v>
+      <c r="F73">
+        <v>0</v>
       </c>
       <c r="G73">
         <v>0</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>12.4</v>
       </c>
       <c r="I73">
         <v>0</v>
@@ -5943,11 +6102,11 @@
       <c r="M73">
         <v>0</v>
       </c>
-      <c r="N73" s="1">
-        <v>12</v>
-      </c>
-      <c r="O73" s="1">
-        <v>2.2999999999999998</v>
+      <c r="N73">
+        <v>0</v>
+      </c>
+      <c r="O73">
+        <v>2.8</v>
       </c>
       <c r="P73">
         <v>0</v>
@@ -5961,11 +6120,17 @@
       <c r="S73">
         <v>0</v>
       </c>
-      <c r="T73" s="1">
-        <v>3.4</v>
-      </c>
-    </row>
-    <row r="74" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="T73">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="U73">
+        <v>72</v>
+      </c>
+      <c r="V73">
+        <v>1.0229999999999999</v>
+      </c>
+    </row>
+    <row r="74" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>73</v>
       </c>
@@ -5979,25 +6144,25 @@
         <v>0</v>
       </c>
       <c r="E74">
-        <v>0</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="F74">
         <v>0</v>
       </c>
       <c r="G74">
-        <v>0</v>
+        <v>12.7</v>
       </c>
       <c r="H74">
         <v>0</v>
       </c>
-      <c r="I74" s="1">
-        <v>9</v>
+      <c r="I74">
+        <v>0</v>
       </c>
       <c r="J74">
         <v>0</v>
       </c>
-      <c r="K74" s="1">
-        <v>10.199999999999999</v>
+      <c r="K74">
+        <v>0</v>
       </c>
       <c r="L74">
         <v>0</v>
@@ -6008,8 +6173,8 @@
       <c r="N74">
         <v>0</v>
       </c>
-      <c r="O74" s="1">
-        <v>1.8</v>
+      <c r="O74">
+        <v>2.1</v>
       </c>
       <c r="P74">
         <v>0</v>
@@ -6023,11 +6188,17 @@
       <c r="S74">
         <v>0</v>
       </c>
-      <c r="T74" s="1">
-        <v>4.4000000000000004</v>
-      </c>
-    </row>
-    <row r="75" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="T74">
+        <v>1.9</v>
+      </c>
+      <c r="U74">
+        <v>73.599999999999994</v>
+      </c>
+      <c r="V74">
+        <v>1.0189999999999999</v>
+      </c>
+    </row>
+    <row r="75" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>74</v>
       </c>
@@ -6041,25 +6212,25 @@
         <v>0</v>
       </c>
       <c r="E75">
-        <v>0</v>
+        <v>10.6</v>
       </c>
       <c r="F75">
         <v>0</v>
       </c>
       <c r="G75">
-        <v>0</v>
+        <v>10.4</v>
       </c>
       <c r="H75">
         <v>0</v>
       </c>
-      <c r="I75" s="1">
-        <v>11.6</v>
+      <c r="I75">
+        <v>0</v>
       </c>
       <c r="J75">
         <v>0</v>
       </c>
-      <c r="K75" s="1">
-        <v>8.5</v>
+      <c r="K75">
+        <v>0</v>
       </c>
       <c r="L75">
         <v>0</v>
@@ -6070,8 +6241,8 @@
       <c r="N75">
         <v>0</v>
       </c>
-      <c r="O75" s="1">
-        <v>2.4</v>
+      <c r="O75">
+        <v>2.6</v>
       </c>
       <c r="P75">
         <v>0</v>
@@ -6085,11 +6256,17 @@
       <c r="S75">
         <v>0</v>
       </c>
-      <c r="T75" s="1">
-        <v>1.6</v>
-      </c>
-    </row>
-    <row r="76" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="T75">
+        <v>4.2</v>
+      </c>
+      <c r="U75">
+        <v>72.2</v>
+      </c>
+      <c r="V75">
+        <v>1.0169999999999999</v>
+      </c>
+    </row>
+    <row r="76" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>75</v>
       </c>
@@ -6103,25 +6280,25 @@
         <v>0</v>
       </c>
       <c r="E76">
-        <v>0</v>
+        <v>11.4</v>
       </c>
       <c r="F76">
         <v>0</v>
       </c>
       <c r="G76">
-        <v>0</v>
+        <v>11.4</v>
       </c>
       <c r="H76">
         <v>0</v>
       </c>
-      <c r="I76" s="1">
-        <v>10.9</v>
+      <c r="I76">
+        <v>0</v>
       </c>
       <c r="J76">
         <v>0</v>
       </c>
-      <c r="K76" s="1">
-        <v>10.7</v>
+      <c r="K76">
+        <v>0</v>
       </c>
       <c r="L76">
         <v>0</v>
@@ -6132,8 +6309,8 @@
       <c r="N76">
         <v>0</v>
       </c>
-      <c r="O76" s="1">
-        <v>2.5</v>
+      <c r="O76">
+        <v>1.2</v>
       </c>
       <c r="P76">
         <v>0</v>
@@ -6147,11 +6324,17 @@
       <c r="S76">
         <v>0</v>
       </c>
-      <c r="T76" s="1">
-        <v>2.2999999999999998</v>
-      </c>
-    </row>
-    <row r="77" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="T76">
+        <v>4.7</v>
+      </c>
+      <c r="U76">
+        <v>71.3</v>
+      </c>
+      <c r="V76">
+        <v>1.0169999999999999</v>
+      </c>
+    </row>
+    <row r="77" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>76</v>
       </c>
@@ -6165,25 +6348,25 @@
         <v>0</v>
       </c>
       <c r="E77">
-        <v>0</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="F77">
         <v>0</v>
       </c>
       <c r="G77">
-        <v>0</v>
+        <v>9.1</v>
       </c>
       <c r="H77">
         <v>0</v>
       </c>
-      <c r="I77" s="1">
-        <v>12.7</v>
+      <c r="I77">
+        <v>0</v>
       </c>
       <c r="J77">
         <v>0</v>
       </c>
-      <c r="K77" s="1">
-        <v>11.5</v>
+      <c r="K77">
+        <v>0</v>
       </c>
       <c r="L77">
         <v>0</v>
@@ -6194,8 +6377,8 @@
       <c r="N77">
         <v>0</v>
       </c>
-      <c r="O77" s="1">
-        <v>2.7</v>
+      <c r="O77">
+        <v>2.2999999999999998</v>
       </c>
       <c r="P77">
         <v>0</v>
@@ -6209,11 +6392,17 @@
       <c r="S77">
         <v>0</v>
       </c>
-      <c r="T77" s="1">
-        <v>1.3</v>
-      </c>
-    </row>
-    <row r="78" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="T77">
+        <v>1.5</v>
+      </c>
+      <c r="U77">
+        <v>77.900000000000006</v>
+      </c>
+      <c r="V77">
+        <v>1.0149999999999999</v>
+      </c>
+    </row>
+    <row r="78" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>77</v>
       </c>
@@ -6227,25 +6416,25 @@
         <v>0</v>
       </c>
       <c r="E78">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="F78">
         <v>0</v>
       </c>
       <c r="G78">
-        <v>0</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="H78">
         <v>0</v>
       </c>
-      <c r="I78" s="1">
-        <v>10.1</v>
+      <c r="I78">
+        <v>0</v>
       </c>
       <c r="J78">
         <v>0</v>
       </c>
-      <c r="K78" s="1">
-        <v>9.6</v>
+      <c r="K78">
+        <v>0</v>
       </c>
       <c r="L78">
         <v>0</v>
@@ -6256,8 +6445,8 @@
       <c r="N78">
         <v>0</v>
       </c>
-      <c r="O78" s="1">
-        <v>2.9</v>
+      <c r="O78">
+        <v>3</v>
       </c>
       <c r="P78">
         <v>0</v>
@@ -6271,11 +6460,17 @@
       <c r="S78">
         <v>0</v>
       </c>
-      <c r="T78" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="79" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="T78">
+        <v>3.5</v>
+      </c>
+      <c r="U78">
+        <v>72.3</v>
+      </c>
+      <c r="V78">
+        <v>1.0169999999999999</v>
+      </c>
+    </row>
+    <row r="79" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>78</v>
       </c>
@@ -6289,25 +6484,25 @@
         <v>0</v>
       </c>
       <c r="E79">
-        <v>0</v>
+        <v>9.5</v>
       </c>
       <c r="F79">
         <v>0</v>
       </c>
       <c r="G79">
-        <v>0</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="H79">
         <v>0</v>
       </c>
-      <c r="I79" s="1">
-        <v>12.3</v>
+      <c r="I79">
+        <v>0</v>
       </c>
       <c r="J79">
         <v>0</v>
       </c>
-      <c r="K79" s="1">
-        <v>8.6</v>
+      <c r="K79">
+        <v>0</v>
       </c>
       <c r="L79">
         <v>0</v>
@@ -6318,8 +6513,8 @@
       <c r="N79">
         <v>0</v>
       </c>
-      <c r="O79" s="1">
-        <v>1.5</v>
+      <c r="O79">
+        <v>2.7</v>
       </c>
       <c r="P79">
         <v>0</v>
@@ -6333,12 +6528,17 @@
       <c r="S79">
         <v>0</v>
       </c>
-      <c r="T79" s="1">
-        <v>2.8</v>
+      <c r="T79">
+        <v>5</v>
+      </c>
+      <c r="U79">
+        <v>74</v>
+      </c>
+      <c r="V79">
+        <v>1.014</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/DoE_csv/PhD_MasterDataset_OT_initial.xlsx
+++ b/DoE_csv/PhD_MasterDataset_OT_initial.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ac2349/GitHub/formulations-prep/DoE_csv/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{89013DAC-864B-304F-95F5-3CCFDC7C54CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B8B1AF1-DCF4-3E41-B261-C30C83DBB909}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="30720" windowHeight="19200"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="30720" windowHeight="19200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PhD_MasterDataset_OT_initial_Ja" sheetId="1" r:id="rId1"/>
@@ -325,7 +325,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -1159,10 +1159,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V79"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E81" sqref="E81"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -1234,7 +1236,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1302,7 +1304,7 @@
         <v>1.004</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1370,7 +1372,7 @@
         <v>1.004</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1438,7 +1440,7 @@
         <v>1.006</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1506,7 +1508,7 @@
         <v>1.008</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1574,7 +1576,7 @@
         <v>1.004</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1642,7 +1644,7 @@
         <v>1.0049999999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1710,7 +1712,7 @@
         <v>1.01</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1778,7 +1780,7 @@
         <v>1.0089999999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1846,7 +1848,7 @@
         <v>1.0069999999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1914,7 +1916,7 @@
         <v>1.0069999999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1982,7 +1984,7 @@
         <v>1.01</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
@@ -2050,7 +2052,7 @@
         <v>1.0089999999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
@@ -2118,7 +2120,7 @@
         <v>1.008</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
@@ -2186,7 +2188,7 @@
         <v>1.0089999999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
@@ -2254,7 +2256,7 @@
         <v>1.0069999999999999</v>
       </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
@@ -2322,7 +2324,7 @@
         <v>1.006</v>
       </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
@@ -2390,7 +2392,7 @@
         <v>1.0109999999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
@@ -2458,7 +2460,7 @@
         <v>1.0069999999999999</v>
       </c>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
@@ -2526,7 +2528,7 @@
         <v>1.0049999999999999</v>
       </c>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
@@ -2594,7 +2596,7 @@
         <v>1.0109999999999999</v>
       </c>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>21</v>
       </c>
@@ -2662,7 +2664,7 @@
         <v>1.0089999999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>22</v>
       </c>
@@ -2730,7 +2732,7 @@
         <v>1.0109999999999999</v>
       </c>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>23</v>
       </c>
@@ -2798,7 +2800,7 @@
         <v>1.0089999999999999</v>
       </c>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>24</v>
       </c>
@@ -2866,7 +2868,7 @@
         <v>1.014</v>
       </c>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>25</v>
       </c>
@@ -2934,7 +2936,7 @@
         <v>1.006</v>
       </c>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>26</v>
       </c>
@@ -3002,7 +3004,7 @@
         <v>1.0049999999999999</v>
       </c>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>27</v>
       </c>
@@ -3070,7 +3072,7 @@
         <v>1.0009999999999999</v>
       </c>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>28</v>
       </c>
@@ -3138,7 +3140,7 @@
         <v>1.0009999999999999</v>
       </c>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>29</v>
       </c>
@@ -3206,7 +3208,7 @@
         <v>1.0049999999999999</v>
       </c>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>30</v>
       </c>
@@ -3274,7 +3276,7 @@
         <v>1.004</v>
       </c>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>31</v>
       </c>
@@ -3342,7 +3344,7 @@
         <v>1.0069999999999999</v>
       </c>
     </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>32</v>
       </c>
@@ -3410,7 +3412,7 @@
         <v>1.012</v>
       </c>
     </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>33</v>
       </c>
@@ -3478,7 +3480,7 @@
         <v>1.012</v>
       </c>
     </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>34</v>
       </c>
@@ -3546,7 +3548,7 @@
         <v>1.0169999999999999</v>
       </c>
     </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>35</v>
       </c>
@@ -3614,7 +3616,7 @@
         <v>1.0109999999999999</v>
       </c>
     </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>36</v>
       </c>
@@ -3682,7 +3684,7 @@
         <v>1.0109999999999999</v>
       </c>
     </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>37</v>
       </c>
@@ -3750,7 +3752,7 @@
         <v>1.02</v>
       </c>
     </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>38</v>
       </c>
@@ -3818,7 +3820,7 @@
         <v>1.0169999999999999</v>
       </c>
     </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>39</v>
       </c>
@@ -3886,7 +3888,7 @@
         <v>1.0129999999999999</v>
       </c>
     </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>40</v>
       </c>
@@ -3954,7 +3956,7 @@
         <v>1.0089999999999999</v>
       </c>
     </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>41</v>
       </c>
@@ -4022,7 +4024,7 @@
         <v>1.006</v>
       </c>
     </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>42</v>
       </c>

--- a/DoE_csv/PhD_MasterDataset_OT_initial.xlsx
+++ b/DoE_csv/PhD_MasterDataset_OT_initial.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ac2349/GitHub/formulations-prep/DoE_csv/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B8B1AF1-DCF4-3E41-B261-C30C83DBB909}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{001FD89F-CF5F-4B46-82DB-B097083E1162}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="30720" windowHeight="19200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="PhD_MasterDataset_OT_initial_Ja" sheetId="1" r:id="rId1"/>
+    <sheet name="MasterDataset_OT_InitialDoE_Feb" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="158">
   <si>
     <t>ID</t>
   </si>
@@ -82,12 +82,6 @@
     <t>Arlypon TT</t>
   </si>
   <si>
-    <t>Water</t>
-  </si>
-  <si>
-    <t>Sample Density</t>
-  </si>
-  <si>
     <t>S1</t>
   </si>
   <si>
@@ -320,13 +314,193 @@
   </si>
   <si>
     <t>S78</t>
+  </si>
+  <si>
+    <t>S79</t>
+  </si>
+  <si>
+    <t>S80</t>
+  </si>
+  <si>
+    <t>S81</t>
+  </si>
+  <si>
+    <t>S82</t>
+  </si>
+  <si>
+    <t>S83</t>
+  </si>
+  <si>
+    <t>S84</t>
+  </si>
+  <si>
+    <t>S85</t>
+  </si>
+  <si>
+    <t>S86</t>
+  </si>
+  <si>
+    <t>S87</t>
+  </si>
+  <si>
+    <t>S88</t>
+  </si>
+  <si>
+    <t>S89</t>
+  </si>
+  <si>
+    <t>S90</t>
+  </si>
+  <si>
+    <t>S91</t>
+  </si>
+  <si>
+    <t>S92</t>
+  </si>
+  <si>
+    <t>S93</t>
+  </si>
+  <si>
+    <t>S94</t>
+  </si>
+  <si>
+    <t>S95</t>
+  </si>
+  <si>
+    <t>S96</t>
+  </si>
+  <si>
+    <t>S97</t>
+  </si>
+  <si>
+    <t>S98</t>
+  </si>
+  <si>
+    <t>S99</t>
+  </si>
+  <si>
+    <t>S100</t>
+  </si>
+  <si>
+    <t>S101</t>
+  </si>
+  <si>
+    <t>S102</t>
+  </si>
+  <si>
+    <t>S103</t>
+  </si>
+  <si>
+    <t>S104</t>
+  </si>
+  <si>
+    <t>S105</t>
+  </si>
+  <si>
+    <t>S106</t>
+  </si>
+  <si>
+    <t>S107</t>
+  </si>
+  <si>
+    <t>S108</t>
+  </si>
+  <si>
+    <t>S109</t>
+  </si>
+  <si>
+    <t>S110</t>
+  </si>
+  <si>
+    <t>S111</t>
+  </si>
+  <si>
+    <t>S112</t>
+  </si>
+  <si>
+    <t>S113</t>
+  </si>
+  <si>
+    <t>S114</t>
+  </si>
+  <si>
+    <t>S115</t>
+  </si>
+  <si>
+    <t>S116</t>
+  </si>
+  <si>
+    <t>S117</t>
+  </si>
+  <si>
+    <t>S118</t>
+  </si>
+  <si>
+    <t>S119</t>
+  </si>
+  <si>
+    <t>S120</t>
+  </si>
+  <si>
+    <t>S121</t>
+  </si>
+  <si>
+    <t>S122</t>
+  </si>
+  <si>
+    <t>S123</t>
+  </si>
+  <si>
+    <t>S124</t>
+  </si>
+  <si>
+    <t>S125</t>
+  </si>
+  <si>
+    <t>S126</t>
+  </si>
+  <si>
+    <t>S127</t>
+  </si>
+  <si>
+    <t>S128</t>
+  </si>
+  <si>
+    <t>S129</t>
+  </si>
+  <si>
+    <t>S130</t>
+  </si>
+  <si>
+    <t>S131</t>
+  </si>
+  <si>
+    <t>S132</t>
+  </si>
+  <si>
+    <t>S133</t>
+  </si>
+  <si>
+    <t>S134</t>
+  </si>
+  <si>
+    <t>S135</t>
+  </si>
+  <si>
+    <t>S136</t>
+  </si>
+  <si>
+    <t>S137</t>
+  </si>
+  <si>
+    <t>S138</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -460,6 +634,25 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="33">
@@ -803,8 +996,13 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1160,15 +1358,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V79"/>
+  <dimension ref="A1:T139"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E81" sqref="E81"/>
+    <sheetView tabSelected="1" zoomScale="50" workbookViewId="0">
+      <pane ySplit="43" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E149" sqref="E149"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1229,19 +1428,13 @@
       <c r="T1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" t="s">
-        <v>20</v>
-      </c>
-      <c r="V1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -1297,19 +1490,13 @@
       <c r="T2">
         <v>4.2</v>
       </c>
-      <c r="U2">
-        <v>84.6</v>
-      </c>
-      <c r="V2">
-        <v>1.004</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -1365,19 +1552,13 @@
       <c r="T3">
         <v>4.5999999999999996</v>
       </c>
-      <c r="U3">
-        <v>86.4</v>
-      </c>
-      <c r="V3">
-        <v>1.004</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -1433,19 +1614,13 @@
       <c r="T4">
         <v>2.9</v>
       </c>
-      <c r="U4">
-        <v>83.2</v>
-      </c>
-      <c r="V4">
-        <v>1.006</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -1501,19 +1676,13 @@
       <c r="T5">
         <v>5.5</v>
       </c>
-      <c r="U5">
-        <v>76.2</v>
-      </c>
-      <c r="V5">
-        <v>1.008</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -1569,19 +1738,13 @@
       <c r="T6">
         <v>4.8</v>
       </c>
-      <c r="U6">
-        <v>84.7</v>
-      </c>
-      <c r="V6">
-        <v>1.004</v>
-      </c>
-    </row>
-    <row r="7" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -1637,19 +1800,13 @@
       <c r="T7">
         <v>5.9</v>
       </c>
-      <c r="U7">
-        <v>82.9</v>
-      </c>
-      <c r="V7">
-        <v>1.0049999999999999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -1705,19 +1862,13 @@
       <c r="T8">
         <v>3.3</v>
       </c>
-      <c r="U8">
-        <v>78.7</v>
-      </c>
-      <c r="V8">
-        <v>1.01</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -1773,19 +1924,13 @@
       <c r="T9">
         <v>5.3</v>
       </c>
-      <c r="U9">
-        <v>78.400000000000006</v>
-      </c>
-      <c r="V9">
-        <v>1.0089999999999999</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -1841,19 +1986,13 @@
       <c r="T10">
         <v>2.4</v>
       </c>
-      <c r="U10">
-        <v>84.3</v>
-      </c>
-      <c r="V10">
-        <v>1.0069999999999999</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -1909,19 +2048,13 @@
       <c r="T11">
         <v>2.1</v>
       </c>
-      <c r="U11">
-        <v>84.6</v>
-      </c>
-      <c r="V11">
-        <v>1.0069999999999999</v>
-      </c>
-    </row>
-    <row r="12" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -1977,19 +2110,13 @@
       <c r="T12">
         <v>4</v>
       </c>
-      <c r="U12">
-        <v>78.599999999999994</v>
-      </c>
-      <c r="V12">
-        <v>1.01</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -2045,19 +2172,13 @@
       <c r="T13">
         <v>5.0999999999999996</v>
       </c>
-      <c r="U13">
-        <v>79.099999999999994</v>
-      </c>
-      <c r="V13">
-        <v>1.0089999999999999</v>
-      </c>
-    </row>
-    <row r="14" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -2113,19 +2234,13 @@
       <c r="T14">
         <v>2.9</v>
       </c>
-      <c r="U14">
-        <v>81.3</v>
-      </c>
-      <c r="V14">
-        <v>1.008</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -2181,19 +2296,13 @@
       <c r="T15">
         <v>5.2</v>
       </c>
-      <c r="U15">
-        <v>79.5</v>
-      </c>
-      <c r="V15">
-        <v>1.0089999999999999</v>
-      </c>
-    </row>
-    <row r="16" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -2249,19 +2358,13 @@
       <c r="T16">
         <v>5.7</v>
       </c>
-      <c r="U16">
-        <v>79.7</v>
-      </c>
-      <c r="V16">
-        <v>1.0069999999999999</v>
-      </c>
-    </row>
-    <row r="17" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -2317,19 +2420,13 @@
       <c r="T17">
         <v>2.5</v>
       </c>
-      <c r="U17">
-        <v>86.3</v>
-      </c>
-      <c r="V17">
-        <v>1.006</v>
-      </c>
-    </row>
-    <row r="18" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -2385,19 +2482,13 @@
       <c r="T18">
         <v>4.5</v>
       </c>
-      <c r="U18">
-        <v>79.3</v>
-      </c>
-      <c r="V18">
-        <v>1.0109999999999999</v>
-      </c>
-    </row>
-    <row r="19" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -2453,19 +2544,13 @@
       <c r="T19">
         <v>6</v>
       </c>
-      <c r="U19">
-        <v>81.8</v>
-      </c>
-      <c r="V19">
-        <v>1.0069999999999999</v>
-      </c>
-    </row>
-    <row r="20" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C20">
         <v>2.5</v>
@@ -2521,19 +2606,13 @@
       <c r="T20">
         <v>3.7</v>
       </c>
-      <c r="U20">
-        <v>88.5</v>
-      </c>
-      <c r="V20">
-        <v>1.0049999999999999</v>
-      </c>
-    </row>
-    <row r="21" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C21">
         <v>4.7</v>
@@ -2589,19 +2668,13 @@
       <c r="T21">
         <v>3.2</v>
       </c>
-      <c r="U21">
-        <v>83.8</v>
-      </c>
-      <c r="V21">
-        <v>1.0109999999999999</v>
-      </c>
-    </row>
-    <row r="22" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C22">
         <v>2.2999999999999998</v>
@@ -2657,19 +2730,13 @@
       <c r="T22">
         <v>2.8</v>
       </c>
-      <c r="U22">
-        <v>86.1</v>
-      </c>
-      <c r="V22">
-        <v>1.0089999999999999</v>
-      </c>
-    </row>
-    <row r="23" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="23" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C23">
         <v>5</v>
@@ -2725,19 +2792,13 @@
       <c r="T23">
         <v>5</v>
       </c>
-      <c r="U23">
-        <v>81</v>
-      </c>
-      <c r="V23">
-        <v>1.0109999999999999</v>
-      </c>
-    </row>
-    <row r="24" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="24" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C24">
         <v>2.1</v>
@@ -2793,19 +2854,13 @@
       <c r="T24">
         <v>3.5</v>
       </c>
-      <c r="U24">
-        <v>84.7</v>
-      </c>
-      <c r="V24">
-        <v>1.0089999999999999</v>
-      </c>
-    </row>
-    <row r="25" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="25" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C25">
         <v>6.6</v>
@@ -2861,19 +2916,13 @@
       <c r="T25">
         <v>4.7</v>
       </c>
-      <c r="U25">
-        <v>79</v>
-      </c>
-      <c r="V25">
-        <v>1.014</v>
-      </c>
-    </row>
-    <row r="26" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="26" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C26">
         <v>0</v>
@@ -2929,19 +2978,13 @@
       <c r="T26">
         <v>4</v>
       </c>
-      <c r="U26">
-        <v>80.599999999999994</v>
-      </c>
-      <c r="V26">
-        <v>1.006</v>
-      </c>
-    </row>
-    <row r="27" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="27" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C27">
         <v>0</v>
@@ -2997,19 +3040,13 @@
       <c r="T27">
         <v>3.6</v>
       </c>
-      <c r="U27">
-        <v>78.400000000000006</v>
-      </c>
-      <c r="V27">
-        <v>1.0049999999999999</v>
-      </c>
-    </row>
-    <row r="28" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="28" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C28">
         <v>0</v>
@@ -3065,19 +3102,13 @@
       <c r="T28">
         <v>4.3</v>
       </c>
-      <c r="U28">
-        <v>82.1</v>
-      </c>
-      <c r="V28">
-        <v>1.0009999999999999</v>
-      </c>
-    </row>
-    <row r="29" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="29" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C29">
         <v>0</v>
@@ -3133,19 +3164,13 @@
       <c r="T29">
         <v>5.6</v>
       </c>
-      <c r="U29">
-        <v>81.599999999999994</v>
-      </c>
-      <c r="V29">
-        <v>1.0009999999999999</v>
-      </c>
-    </row>
-    <row r="30" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="30" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C30">
         <v>0</v>
@@ -3201,19 +3226,13 @@
       <c r="T30">
         <v>2.1</v>
       </c>
-      <c r="U30">
-        <v>87.2</v>
-      </c>
-      <c r="V30">
-        <v>1.0049999999999999</v>
-      </c>
-    </row>
-    <row r="31" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="31" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C31">
         <v>0</v>
@@ -3269,19 +3288,13 @@
       <c r="T31">
         <v>4.4000000000000004</v>
       </c>
-      <c r="U31">
-        <v>77.8</v>
-      </c>
-      <c r="V31">
-        <v>1.004</v>
-      </c>
-    </row>
-    <row r="32" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="32" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C32">
         <v>0</v>
@@ -3337,19 +3350,13 @@
       <c r="T32">
         <v>5.4</v>
       </c>
-      <c r="U32">
-        <v>83.2</v>
-      </c>
-      <c r="V32">
-        <v>1.0069999999999999</v>
-      </c>
-    </row>
-    <row r="33" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="33" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C33">
         <v>0</v>
@@ -3405,19 +3412,13 @@
       <c r="T33">
         <v>2.6</v>
       </c>
-      <c r="U33">
-        <v>83.6</v>
-      </c>
-      <c r="V33">
-        <v>1.012</v>
-      </c>
-    </row>
-    <row r="34" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="34" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C34">
         <v>0</v>
@@ -3473,19 +3474,13 @@
       <c r="T34">
         <v>3.3</v>
       </c>
-      <c r="U34">
-        <v>80.900000000000006</v>
-      </c>
-      <c r="V34">
-        <v>1.012</v>
-      </c>
-    </row>
-    <row r="35" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="35" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C35">
         <v>0</v>
@@ -3541,19 +3536,13 @@
       <c r="T35">
         <v>2.2999999999999998</v>
       </c>
-      <c r="U35">
-        <v>78.3</v>
-      </c>
-      <c r="V35">
-        <v>1.0169999999999999</v>
-      </c>
-    </row>
-    <row r="36" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="36" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C36">
         <v>0</v>
@@ -3609,19 +3598,13 @@
       <c r="T36">
         <v>3</v>
       </c>
-      <c r="U36">
-        <v>82.7</v>
-      </c>
-      <c r="V36">
-        <v>1.0109999999999999</v>
-      </c>
-    </row>
-    <row r="37" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="37" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C37">
         <v>0</v>
@@ -3677,19 +3660,13 @@
       <c r="T37">
         <v>3.8</v>
       </c>
-      <c r="U37">
-        <v>83.3</v>
-      </c>
-      <c r="V37">
-        <v>1.0109999999999999</v>
-      </c>
-    </row>
-    <row r="38" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="38" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C38">
         <v>0</v>
@@ -3745,19 +3722,13 @@
       <c r="T38">
         <v>0</v>
       </c>
-      <c r="U38">
-        <v>69</v>
-      </c>
-      <c r="V38">
-        <v>1.02</v>
-      </c>
-    </row>
-    <row r="39" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="39" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C39">
         <v>0</v>
@@ -3813,19 +3784,13 @@
       <c r="T39">
         <v>0</v>
       </c>
-      <c r="U39">
-        <v>69</v>
-      </c>
-      <c r="V39">
-        <v>1.0169999999999999</v>
-      </c>
-    </row>
-    <row r="40" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="40" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C40">
         <v>0</v>
@@ -3881,19 +3846,13 @@
       <c r="T40">
         <v>0</v>
       </c>
-      <c r="U40">
-        <v>68</v>
-      </c>
-      <c r="V40">
-        <v>1.0129999999999999</v>
-      </c>
-    </row>
-    <row r="41" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="41" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C41">
         <v>11.5</v>
@@ -3949,19 +3908,13 @@
       <c r="T41">
         <v>0</v>
       </c>
-      <c r="U41">
-        <v>80</v>
-      </c>
-      <c r="V41">
-        <v>1.0089999999999999</v>
-      </c>
-    </row>
-    <row r="42" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="42" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C42">
         <v>3</v>
@@ -4017,19 +3970,13 @@
       <c r="T42">
         <v>0</v>
       </c>
-      <c r="U42">
-        <v>74</v>
-      </c>
-      <c r="V42">
-        <v>1.006</v>
-      </c>
-    </row>
-    <row r="43" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="43" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C43">
         <v>4</v>
@@ -4085,19 +4032,13 @@
       <c r="T43">
         <v>0</v>
       </c>
-      <c r="U43">
-        <v>68</v>
-      </c>
-      <c r="V43">
-        <v>1.018</v>
-      </c>
-    </row>
-    <row r="44" spans="1:22" x14ac:dyDescent="0.2">
+    </row>
+    <row r="44" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C44">
         <v>9.3000000000000007</v>
@@ -4153,19 +4094,13 @@
       <c r="T44">
         <v>3.2</v>
       </c>
-      <c r="U44">
-        <v>75.7</v>
-      </c>
-      <c r="V44">
-        <v>1.018</v>
-      </c>
-    </row>
-    <row r="45" spans="1:22" x14ac:dyDescent="0.2">
+    </row>
+    <row r="45" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C45">
         <v>8.6999999999999993</v>
@@ -4221,19 +4156,13 @@
       <c r="T45">
         <v>3.6</v>
       </c>
-      <c r="U45">
-        <v>77.5</v>
-      </c>
-      <c r="V45">
-        <v>1.016</v>
-      </c>
-    </row>
-    <row r="46" spans="1:22" x14ac:dyDescent="0.2">
+    </row>
+    <row r="46" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C46">
         <v>12.3</v>
@@ -4289,19 +4218,13 @@
       <c r="T46">
         <v>1.9</v>
       </c>
-      <c r="U46">
-        <v>74.5</v>
-      </c>
-      <c r="V46">
-        <v>1.0209999999999999</v>
-      </c>
-    </row>
-    <row r="47" spans="1:22" x14ac:dyDescent="0.2">
+    </row>
+    <row r="47" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C47">
         <v>12.5</v>
@@ -4357,19 +4280,13 @@
       <c r="T47">
         <v>4.5</v>
       </c>
-      <c r="U47">
-        <v>68.599999999999994</v>
-      </c>
-      <c r="V47">
-        <v>1.024</v>
-      </c>
-    </row>
-    <row r="48" spans="1:22" x14ac:dyDescent="0.2">
+    </row>
+    <row r="48" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C48">
         <v>9.9</v>
@@ -4425,19 +4342,13 @@
       <c r="T48">
         <v>3.8</v>
       </c>
-      <c r="U48">
-        <v>75.599999999999994</v>
-      </c>
-      <c r="V48">
-        <v>1.018</v>
-      </c>
-    </row>
-    <row r="49" spans="1:22" x14ac:dyDescent="0.2">
+    </row>
+    <row r="49" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C49">
         <v>11</v>
@@ -4493,19 +4404,13 @@
       <c r="T49">
         <v>4.9000000000000004</v>
       </c>
-      <c r="U49">
-        <v>74.099999999999994</v>
-      </c>
-      <c r="V49">
-        <v>1.018</v>
-      </c>
-    </row>
-    <row r="50" spans="1:22" x14ac:dyDescent="0.2">
+    </row>
+    <row r="50" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C50">
         <v>0</v>
@@ -4561,19 +4466,13 @@
       <c r="T50">
         <v>3</v>
       </c>
-      <c r="U50">
-        <v>72.8</v>
-      </c>
-      <c r="V50">
-        <v>1.0069999999999999</v>
-      </c>
-    </row>
-    <row r="51" spans="1:22" x14ac:dyDescent="0.2">
+    </row>
+    <row r="51" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C51">
         <v>0</v>
@@ -4629,19 +4528,13 @@
       <c r="T51">
         <v>2.6</v>
       </c>
-      <c r="U51">
-        <v>71.599999999999994</v>
-      </c>
-      <c r="V51">
-        <v>1.006</v>
-      </c>
-    </row>
-    <row r="52" spans="1:22" x14ac:dyDescent="0.2">
+    </row>
+    <row r="52" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C52">
         <v>0</v>
@@ -4697,19 +4590,13 @@
       <c r="T52">
         <v>3.3</v>
       </c>
-      <c r="U52">
-        <v>73.8</v>
-      </c>
-      <c r="V52">
-        <v>1.0029999999999999</v>
-      </c>
-    </row>
-    <row r="53" spans="1:22" x14ac:dyDescent="0.2">
+    </row>
+    <row r="53" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C53">
         <v>0</v>
@@ -4765,19 +4652,13 @@
       <c r="T53">
         <v>4.5999999999999996</v>
       </c>
-      <c r="U53">
-        <v>73.599999999999994</v>
-      </c>
-      <c r="V53">
-        <v>1.002</v>
-      </c>
-    </row>
-    <row r="54" spans="1:22" x14ac:dyDescent="0.2">
+    </row>
+    <row r="54" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C54">
         <v>0</v>
@@ -4833,19 +4714,13 @@
       <c r="T54">
         <v>1.1000000000000001</v>
       </c>
-      <c r="U54">
-        <v>78.599999999999994</v>
-      </c>
-      <c r="V54">
-        <v>1.006</v>
-      </c>
-    </row>
-    <row r="55" spans="1:22" x14ac:dyDescent="0.2">
+    </row>
+    <row r="55" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C55">
         <v>0</v>
@@ -4901,19 +4776,13 @@
       <c r="T55">
         <v>3.4</v>
       </c>
-      <c r="U55">
-        <v>70.599999999999994</v>
-      </c>
-      <c r="V55">
-        <v>1.0049999999999999</v>
-      </c>
-    </row>
-    <row r="56" spans="1:22" x14ac:dyDescent="0.2">
+    </row>
+    <row r="56" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C56">
         <v>0</v>
@@ -4969,19 +4838,13 @@
       <c r="T56">
         <v>4.4000000000000004</v>
       </c>
-      <c r="U56">
-        <v>74.599999999999994</v>
-      </c>
-      <c r="V56">
-        <v>1.0069999999999999</v>
-      </c>
-    </row>
-    <row r="57" spans="1:22" x14ac:dyDescent="0.2">
+    </row>
+    <row r="57" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C57">
         <v>0</v>
@@ -5037,19 +4900,13 @@
       <c r="T57">
         <v>1.6</v>
       </c>
-      <c r="U57">
-        <v>75.900000000000006</v>
-      </c>
-      <c r="V57">
-        <v>1.01</v>
-      </c>
-    </row>
-    <row r="58" spans="1:22" x14ac:dyDescent="0.2">
+    </row>
+    <row r="58" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C58">
         <v>0</v>
@@ -5105,19 +4962,13 @@
       <c r="T58">
         <v>2.2999999999999998</v>
       </c>
-      <c r="U58">
-        <v>73.599999999999994</v>
-      </c>
-      <c r="V58">
-        <v>1.01</v>
-      </c>
-    </row>
-    <row r="59" spans="1:22" x14ac:dyDescent="0.2">
+    </row>
+    <row r="59" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C59">
         <v>0</v>
@@ -5173,19 +5024,13 @@
       <c r="T59">
         <v>1.3</v>
       </c>
-      <c r="U59">
-        <v>71.8</v>
-      </c>
-      <c r="V59">
-        <v>1.012</v>
-      </c>
-    </row>
-    <row r="60" spans="1:22" x14ac:dyDescent="0.2">
+    </row>
+    <row r="60" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C60">
         <v>0</v>
@@ -5241,19 +5086,13 @@
       <c r="T60">
         <v>2</v>
       </c>
-      <c r="U60">
-        <v>75.400000000000006</v>
-      </c>
-      <c r="V60">
-        <v>1.01</v>
-      </c>
-    </row>
-    <row r="61" spans="1:22" x14ac:dyDescent="0.2">
+    </row>
+    <row r="61" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C61">
         <v>0</v>
@@ -5309,19 +5148,13 @@
       <c r="T61">
         <v>2.8</v>
       </c>
-      <c r="U61">
-        <v>74.8</v>
-      </c>
-      <c r="V61">
-        <v>1.0089999999999999</v>
-      </c>
-    </row>
-    <row r="62" spans="1:22" x14ac:dyDescent="0.2">
+    </row>
+    <row r="62" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C62">
         <v>0</v>
@@ -5377,19 +5210,13 @@
       <c r="T62">
         <v>2.7</v>
       </c>
-      <c r="U62">
-        <v>78.900000000000006</v>
-      </c>
-      <c r="V62">
-        <v>1.0049999999999999</v>
-      </c>
-    </row>
-    <row r="63" spans="1:22" x14ac:dyDescent="0.2">
+    </row>
+    <row r="63" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C63">
         <v>0</v>
@@ -5445,19 +5272,13 @@
       <c r="T63">
         <v>2.2000000000000002</v>
       </c>
-      <c r="U63">
-        <v>75.099999999999994</v>
-      </c>
-      <c r="V63">
-        <v>1.0069999999999999</v>
-      </c>
-    </row>
-    <row r="64" spans="1:22" x14ac:dyDescent="0.2">
+    </row>
+    <row r="64" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C64">
         <v>0</v>
@@ -5513,19 +5334,13 @@
       <c r="T64">
         <v>1.8</v>
       </c>
-      <c r="U64">
-        <v>77.400000000000006</v>
-      </c>
-      <c r="V64">
-        <v>1.0069999999999999</v>
-      </c>
-    </row>
-    <row r="65" spans="1:22" x14ac:dyDescent="0.2">
+    </row>
+    <row r="65" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C65">
         <v>0</v>
@@ -5581,19 +5396,13 @@
       <c r="T65">
         <v>4</v>
       </c>
-      <c r="U65">
-        <v>72.5</v>
-      </c>
-      <c r="V65">
-        <v>1.0069999999999999</v>
-      </c>
-    </row>
-    <row r="66" spans="1:22" x14ac:dyDescent="0.2">
+    </row>
+    <row r="66" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C66">
         <v>0</v>
@@ -5649,19 +5458,13 @@
       <c r="T66">
         <v>2.5</v>
       </c>
-      <c r="U66">
-        <v>76.7</v>
-      </c>
-      <c r="V66">
-        <v>1.008</v>
-      </c>
-    </row>
-    <row r="67" spans="1:22" x14ac:dyDescent="0.2">
+    </row>
+    <row r="67" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C67">
         <v>0</v>
@@ -5717,19 +5520,13 @@
       <c r="T67">
         <v>3.7</v>
       </c>
-      <c r="U67">
-        <v>71.5</v>
-      </c>
-      <c r="V67">
-        <v>1.008</v>
-      </c>
-    </row>
-    <row r="68" spans="1:22" x14ac:dyDescent="0.2">
+    </row>
+    <row r="68" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C68">
         <v>0</v>
@@ -5785,19 +5582,13 @@
       <c r="T68">
         <v>2.2999999999999998</v>
       </c>
-      <c r="U68">
-        <v>71.3</v>
-      </c>
-      <c r="V68">
-        <v>1.0269999999999999</v>
-      </c>
-    </row>
-    <row r="69" spans="1:22" x14ac:dyDescent="0.2">
+    </row>
+    <row r="69" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C69">
         <v>0</v>
@@ -5853,19 +5644,13 @@
       <c r="T69">
         <v>4.3</v>
       </c>
-      <c r="U69">
-        <v>70.900000000000006</v>
-      </c>
-      <c r="V69">
-        <v>1.0249999999999999</v>
-      </c>
-    </row>
-    <row r="70" spans="1:22" x14ac:dyDescent="0.2">
+    </row>
+    <row r="70" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C70">
         <v>0</v>
@@ -5921,19 +5706,13 @@
       <c r="T70">
         <v>1.4</v>
       </c>
-      <c r="U70">
-        <v>75.8</v>
-      </c>
-      <c r="V70">
-        <v>1.022</v>
-      </c>
-    </row>
-    <row r="71" spans="1:22" x14ac:dyDescent="0.2">
+    </row>
+    <row r="71" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C71">
         <v>0</v>
@@ -5989,19 +5768,13 @@
       <c r="T71">
         <v>1.1000000000000001</v>
       </c>
-      <c r="U71">
-        <v>76.2</v>
-      </c>
-      <c r="V71">
-        <v>1.0229999999999999</v>
-      </c>
-    </row>
-    <row r="72" spans="1:22" x14ac:dyDescent="0.2">
+    </row>
+    <row r="72" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C72">
         <v>0</v>
@@ -6057,19 +5830,13 @@
       <c r="T72">
         <v>3</v>
       </c>
-      <c r="U72">
-        <v>71.5</v>
-      </c>
-      <c r="V72">
-        <v>1.0249999999999999</v>
-      </c>
-    </row>
-    <row r="73" spans="1:22" x14ac:dyDescent="0.2">
+    </row>
+    <row r="73" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C73">
         <v>0</v>
@@ -6125,19 +5892,13 @@
       <c r="T73">
         <v>4.0999999999999996</v>
       </c>
-      <c r="U73">
-        <v>72</v>
-      </c>
-      <c r="V73">
-        <v>1.0229999999999999</v>
-      </c>
-    </row>
-    <row r="74" spans="1:22" x14ac:dyDescent="0.2">
+    </row>
+    <row r="74" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C74">
         <v>0</v>
@@ -6193,19 +5954,13 @@
       <c r="T74">
         <v>1.9</v>
       </c>
-      <c r="U74">
-        <v>73.599999999999994</v>
-      </c>
-      <c r="V74">
-        <v>1.0189999999999999</v>
-      </c>
-    </row>
-    <row r="75" spans="1:22" x14ac:dyDescent="0.2">
+    </row>
+    <row r="75" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C75">
         <v>0</v>
@@ -6261,19 +6016,13 @@
       <c r="T75">
         <v>4.2</v>
       </c>
-      <c r="U75">
-        <v>72.2</v>
-      </c>
-      <c r="V75">
-        <v>1.0169999999999999</v>
-      </c>
-    </row>
-    <row r="76" spans="1:22" x14ac:dyDescent="0.2">
+    </row>
+    <row r="76" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C76">
         <v>0</v>
@@ -6329,19 +6078,13 @@
       <c r="T76">
         <v>4.7</v>
       </c>
-      <c r="U76">
-        <v>71.3</v>
-      </c>
-      <c r="V76">
-        <v>1.0169999999999999</v>
-      </c>
-    </row>
-    <row r="77" spans="1:22" x14ac:dyDescent="0.2">
+    </row>
+    <row r="77" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C77">
         <v>0</v>
@@ -6397,19 +6140,13 @@
       <c r="T77">
         <v>1.5</v>
       </c>
-      <c r="U77">
-        <v>77.900000000000006</v>
-      </c>
-      <c r="V77">
-        <v>1.0149999999999999</v>
-      </c>
-    </row>
-    <row r="78" spans="1:22" x14ac:dyDescent="0.2">
+    </row>
+    <row r="78" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C78">
         <v>0</v>
@@ -6465,19 +6202,13 @@
       <c r="T78">
         <v>3.5</v>
       </c>
-      <c r="U78">
-        <v>72.3</v>
-      </c>
-      <c r="V78">
-        <v>1.0169999999999999</v>
-      </c>
-    </row>
-    <row r="79" spans="1:22" x14ac:dyDescent="0.2">
+    </row>
+    <row r="79" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C79">
         <v>0</v>
@@ -6533,14 +6264,3729 @@
       <c r="T79">
         <v>5</v>
       </c>
-      <c r="U79">
-        <v>74</v>
-      </c>
-      <c r="V79">
-        <v>1.014</v>
+    </row>
+    <row r="80" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A80">
+        <v>79</v>
+      </c>
+      <c r="B80" t="s">
+        <v>98</v>
+      </c>
+      <c r="C80">
+        <v>10.4</v>
+      </c>
+      <c r="D80">
+        <v>10.9</v>
+      </c>
+      <c r="E80">
+        <v>0</v>
+      </c>
+      <c r="F80">
+        <v>0</v>
+      </c>
+      <c r="G80">
+        <v>0</v>
+      </c>
+      <c r="H80">
+        <v>0</v>
+      </c>
+      <c r="I80">
+        <v>0</v>
+      </c>
+      <c r="J80">
+        <v>0</v>
+      </c>
+      <c r="K80">
+        <v>0</v>
+      </c>
+      <c r="L80">
+        <v>0</v>
+      </c>
+      <c r="M80">
+        <v>0</v>
+      </c>
+      <c r="N80">
+        <v>0</v>
+      </c>
+      <c r="O80" s="2">
+        <v>1.3</v>
+      </c>
+      <c r="P80">
+        <v>0</v>
+      </c>
+      <c r="Q80">
+        <v>0</v>
+      </c>
+      <c r="R80" s="1">
+        <v>0</v>
+      </c>
+      <c r="S80" s="1">
+        <v>0</v>
+      </c>
+      <c r="T80" s="2">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="81" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A81">
+        <v>80</v>
+      </c>
+      <c r="B81" t="s">
+        <v>99</v>
+      </c>
+      <c r="C81">
+        <v>12.6</v>
+      </c>
+      <c r="D81">
+        <v>0</v>
+      </c>
+      <c r="E81">
+        <v>10.8</v>
+      </c>
+      <c r="F81">
+        <v>0</v>
+      </c>
+      <c r="G81">
+        <v>0</v>
+      </c>
+      <c r="H81">
+        <v>0</v>
+      </c>
+      <c r="I81">
+        <v>0</v>
+      </c>
+      <c r="J81">
+        <v>0</v>
+      </c>
+      <c r="K81">
+        <v>0</v>
+      </c>
+      <c r="L81">
+        <v>0</v>
+      </c>
+      <c r="M81">
+        <v>0</v>
+      </c>
+      <c r="N81">
+        <v>0</v>
+      </c>
+      <c r="O81" s="2">
+        <v>1.6</v>
+      </c>
+      <c r="P81">
+        <v>0</v>
+      </c>
+      <c r="Q81">
+        <v>0</v>
+      </c>
+      <c r="R81" s="1">
+        <v>0</v>
+      </c>
+      <c r="S81" s="1">
+        <v>0</v>
+      </c>
+      <c r="T81" s="2">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A82">
+        <v>81</v>
+      </c>
+      <c r="B82" t="s">
+        <v>100</v>
+      </c>
+      <c r="C82">
+        <v>12.5</v>
+      </c>
+      <c r="D82">
+        <v>0</v>
+      </c>
+      <c r="E82">
+        <v>0</v>
+      </c>
+      <c r="F82">
+        <v>11.1</v>
+      </c>
+      <c r="G82">
+        <v>0</v>
+      </c>
+      <c r="H82">
+        <v>0</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+      <c r="J82">
+        <v>0</v>
+      </c>
+      <c r="K82">
+        <v>0</v>
+      </c>
+      <c r="L82">
+        <v>0</v>
+      </c>
+      <c r="M82">
+        <v>0</v>
+      </c>
+      <c r="N82">
+        <v>0</v>
+      </c>
+      <c r="O82" s="2">
+        <v>2.4</v>
+      </c>
+      <c r="P82">
+        <v>0</v>
+      </c>
+      <c r="Q82">
+        <v>0</v>
+      </c>
+      <c r="R82" s="1">
+        <v>0</v>
+      </c>
+      <c r="S82" s="1">
+        <v>0</v>
+      </c>
+      <c r="T82" s="2">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="83" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A83">
+        <v>82</v>
+      </c>
+      <c r="B83" t="s">
+        <v>101</v>
+      </c>
+      <c r="C83">
+        <v>9</v>
+      </c>
+      <c r="D83">
+        <v>0</v>
+      </c>
+      <c r="E83">
+        <v>0</v>
+      </c>
+      <c r="F83">
+        <v>0</v>
+      </c>
+      <c r="G83">
+        <v>11.3</v>
+      </c>
+      <c r="H83">
+        <v>0</v>
+      </c>
+      <c r="I83">
+        <v>0</v>
+      </c>
+      <c r="J83">
+        <v>0</v>
+      </c>
+      <c r="K83">
+        <v>0</v>
+      </c>
+      <c r="L83">
+        <v>0</v>
+      </c>
+      <c r="M83">
+        <v>0</v>
+      </c>
+      <c r="N83">
+        <v>0</v>
+      </c>
+      <c r="O83" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="P83">
+        <v>0</v>
+      </c>
+      <c r="Q83">
+        <v>0</v>
+      </c>
+      <c r="R83" s="1">
+        <v>0</v>
+      </c>
+      <c r="S83" s="1">
+        <v>0</v>
+      </c>
+      <c r="T83" s="2">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A84">
+        <v>83</v>
+      </c>
+      <c r="B84" t="s">
+        <v>102</v>
+      </c>
+      <c r="C84">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="D84">
+        <v>0</v>
+      </c>
+      <c r="E84">
+        <v>0</v>
+      </c>
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+      <c r="H84">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+      <c r="J84">
+        <v>0</v>
+      </c>
+      <c r="K84">
+        <v>0</v>
+      </c>
+      <c r="L84">
+        <v>0</v>
+      </c>
+      <c r="M84">
+        <v>0</v>
+      </c>
+      <c r="N84">
+        <v>0</v>
+      </c>
+      <c r="O84" s="2">
+        <v>1</v>
+      </c>
+      <c r="P84">
+        <v>0</v>
+      </c>
+      <c r="Q84">
+        <v>0</v>
+      </c>
+      <c r="R84" s="1">
+        <v>0</v>
+      </c>
+      <c r="S84" s="1">
+        <v>0</v>
+      </c>
+      <c r="T84" s="2">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A85">
+        <v>84</v>
+      </c>
+      <c r="B85" t="s">
+        <v>103</v>
+      </c>
+      <c r="C85">
+        <v>12.4</v>
+      </c>
+      <c r="D85">
+        <v>0</v>
+      </c>
+      <c r="E85">
+        <v>0</v>
+      </c>
+      <c r="F85">
+        <v>0</v>
+      </c>
+      <c r="G85">
+        <v>0</v>
+      </c>
+      <c r="H85">
+        <v>0</v>
+      </c>
+      <c r="I85">
+        <v>12.3</v>
+      </c>
+      <c r="J85">
+        <v>0</v>
+      </c>
+      <c r="K85">
+        <v>0</v>
+      </c>
+      <c r="L85">
+        <v>0</v>
+      </c>
+      <c r="M85">
+        <v>0</v>
+      </c>
+      <c r="N85">
+        <v>0</v>
+      </c>
+      <c r="O85" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="P85">
+        <v>0</v>
+      </c>
+      <c r="Q85">
+        <v>0</v>
+      </c>
+      <c r="R85" s="1">
+        <v>0</v>
+      </c>
+      <c r="S85" s="1">
+        <v>0</v>
+      </c>
+      <c r="T85" s="2">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="86" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A86" s="3">
+        <v>85</v>
+      </c>
+      <c r="B86" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C86" s="3">
+        <v>0</v>
+      </c>
+      <c r="D86" s="3">
+        <v>0</v>
+      </c>
+      <c r="E86" s="3">
+        <v>0</v>
+      </c>
+      <c r="F86" s="3">
+        <v>0</v>
+      </c>
+      <c r="G86" s="3">
+        <v>0</v>
+      </c>
+      <c r="H86" s="3">
+        <v>0</v>
+      </c>
+      <c r="I86" s="3">
+        <v>0</v>
+      </c>
+      <c r="J86" s="3">
+        <v>0</v>
+      </c>
+      <c r="K86" s="3">
+        <v>12.5</v>
+      </c>
+      <c r="L86" s="3">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+      <c r="O86" s="4">
+        <v>1.3</v>
+      </c>
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+      <c r="R86" s="5">
+        <v>0</v>
+      </c>
+      <c r="S86" s="5">
+        <v>0</v>
+      </c>
+      <c r="T86" s="4">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="87" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A87">
+        <v>86</v>
+      </c>
+      <c r="B87" t="s">
+        <v>105</v>
+      </c>
+      <c r="C87">
+        <v>12</v>
+      </c>
+      <c r="D87">
+        <v>0</v>
+      </c>
+      <c r="E87">
+        <v>0</v>
+      </c>
+      <c r="F87">
+        <v>0</v>
+      </c>
+      <c r="G87">
+        <v>0</v>
+      </c>
+      <c r="H87">
+        <v>0</v>
+      </c>
+      <c r="I87">
+        <v>0</v>
+      </c>
+      <c r="J87">
+        <v>0</v>
+      </c>
+      <c r="K87">
+        <v>10.8</v>
+      </c>
+      <c r="L87">
+        <v>0</v>
+      </c>
+      <c r="M87">
+        <v>0</v>
+      </c>
+      <c r="N87">
+        <v>0</v>
+      </c>
+      <c r="O87" s="2">
+        <v>1.8</v>
+      </c>
+      <c r="P87">
+        <v>0</v>
+      </c>
+      <c r="Q87">
+        <v>0</v>
+      </c>
+      <c r="R87" s="1">
+        <v>0</v>
+      </c>
+      <c r="S87" s="1">
+        <v>0</v>
+      </c>
+      <c r="T87" s="2">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="88" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A88">
+        <v>87</v>
+      </c>
+      <c r="B88" t="s">
+        <v>106</v>
+      </c>
+      <c r="C88">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="D88">
+        <v>0</v>
+      </c>
+      <c r="E88">
+        <v>0</v>
+      </c>
+      <c r="F88">
+        <v>0</v>
+      </c>
+      <c r="G88">
+        <v>0</v>
+      </c>
+      <c r="H88">
+        <v>0</v>
+      </c>
+      <c r="I88">
+        <v>0</v>
+      </c>
+      <c r="J88">
+        <v>0</v>
+      </c>
+      <c r="K88">
+        <v>0</v>
+      </c>
+      <c r="L88">
+        <v>9.5</v>
+      </c>
+      <c r="M88">
+        <v>0</v>
+      </c>
+      <c r="N88">
+        <v>0</v>
+      </c>
+      <c r="O88" s="2">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="P88">
+        <v>0</v>
+      </c>
+      <c r="Q88">
+        <v>0</v>
+      </c>
+      <c r="R88" s="1">
+        <v>0</v>
+      </c>
+      <c r="S88" s="1">
+        <v>0</v>
+      </c>
+      <c r="T88" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="89" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A89">
+        <v>88</v>
+      </c>
+      <c r="B89" t="s">
+        <v>107</v>
+      </c>
+      <c r="C89">
+        <v>11.4</v>
+      </c>
+      <c r="D89">
+        <v>0</v>
+      </c>
+      <c r="E89">
+        <v>0</v>
+      </c>
+      <c r="F89">
+        <v>0</v>
+      </c>
+      <c r="G89">
+        <v>0</v>
+      </c>
+      <c r="H89">
+        <v>0</v>
+      </c>
+      <c r="I89">
+        <v>0</v>
+      </c>
+      <c r="J89">
+        <v>0</v>
+      </c>
+      <c r="K89">
+        <v>0</v>
+      </c>
+      <c r="L89">
+        <v>0</v>
+      </c>
+      <c r="M89">
+        <v>10.5</v>
+      </c>
+      <c r="N89">
+        <v>0</v>
+      </c>
+      <c r="O89" s="2">
+        <v>1.8</v>
+      </c>
+      <c r="P89">
+        <v>0</v>
+      </c>
+      <c r="Q89">
+        <v>0</v>
+      </c>
+      <c r="R89" s="1">
+        <v>0</v>
+      </c>
+      <c r="S89" s="1">
+        <v>0</v>
+      </c>
+      <c r="T89" s="2">
+        <v>4.9000000000000004</v>
+      </c>
+    </row>
+    <row r="90" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A90">
+        <v>89</v>
+      </c>
+      <c r="B90" t="s">
+        <v>108</v>
+      </c>
+      <c r="C90">
+        <v>8.1</v>
+      </c>
+      <c r="D90">
+        <v>0</v>
+      </c>
+      <c r="E90">
+        <v>0</v>
+      </c>
+      <c r="F90">
+        <v>0</v>
+      </c>
+      <c r="G90">
+        <v>0</v>
+      </c>
+      <c r="H90">
+        <v>0</v>
+      </c>
+      <c r="I90">
+        <v>0</v>
+      </c>
+      <c r="J90">
+        <v>0</v>
+      </c>
+      <c r="K90">
+        <v>0</v>
+      </c>
+      <c r="L90">
+        <v>0</v>
+      </c>
+      <c r="M90">
+        <v>0</v>
+      </c>
+      <c r="N90">
+        <v>10.3</v>
+      </c>
+      <c r="O90" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="P90">
+        <v>0</v>
+      </c>
+      <c r="Q90">
+        <v>0</v>
+      </c>
+      <c r="R90" s="1">
+        <v>0</v>
+      </c>
+      <c r="S90" s="1">
+        <v>0</v>
+      </c>
+      <c r="T90" s="2">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="91" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A91">
+        <v>90</v>
+      </c>
+      <c r="B91" t="s">
+        <v>109</v>
+      </c>
+      <c r="C91">
+        <v>0</v>
+      </c>
+      <c r="D91">
+        <v>11.3</v>
+      </c>
+      <c r="E91">
+        <v>12.1</v>
+      </c>
+      <c r="F91">
+        <v>0</v>
+      </c>
+      <c r="G91">
+        <v>0</v>
+      </c>
+      <c r="H91">
+        <v>0</v>
+      </c>
+      <c r="I91">
+        <v>0</v>
+      </c>
+      <c r="J91">
+        <v>0</v>
+      </c>
+      <c r="K91">
+        <v>0</v>
+      </c>
+      <c r="L91">
+        <v>0</v>
+      </c>
+      <c r="M91">
+        <v>0</v>
+      </c>
+      <c r="N91">
+        <v>0</v>
+      </c>
+      <c r="O91" s="2">
+        <v>2.6</v>
+      </c>
+      <c r="P91">
+        <v>0</v>
+      </c>
+      <c r="Q91">
+        <v>0</v>
+      </c>
+      <c r="R91" s="1">
+        <v>0</v>
+      </c>
+      <c r="S91" s="1">
+        <v>0</v>
+      </c>
+      <c r="T91" s="2">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="92" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A92">
+        <v>91</v>
+      </c>
+      <c r="B92" t="s">
+        <v>110</v>
+      </c>
+      <c r="C92">
+        <v>0</v>
+      </c>
+      <c r="D92">
+        <v>8.9</v>
+      </c>
+      <c r="E92">
+        <v>0</v>
+      </c>
+      <c r="F92">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="G92">
+        <v>0</v>
+      </c>
+      <c r="H92">
+        <v>0</v>
+      </c>
+      <c r="I92">
+        <v>0</v>
+      </c>
+      <c r="J92">
+        <v>0</v>
+      </c>
+      <c r="K92">
+        <v>0</v>
+      </c>
+      <c r="L92">
+        <v>0</v>
+      </c>
+      <c r="M92">
+        <v>0</v>
+      </c>
+      <c r="N92">
+        <v>0</v>
+      </c>
+      <c r="O92" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="P92">
+        <v>0</v>
+      </c>
+      <c r="Q92">
+        <v>0</v>
+      </c>
+      <c r="R92" s="1">
+        <v>0</v>
+      </c>
+      <c r="S92" s="1">
+        <v>0</v>
+      </c>
+      <c r="T92" s="2">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="93" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A93">
+        <v>92</v>
+      </c>
+      <c r="B93" t="s">
+        <v>111</v>
+      </c>
+      <c r="C93">
+        <v>0</v>
+      </c>
+      <c r="D93">
+        <v>8.5</v>
+      </c>
+      <c r="E93">
+        <v>0</v>
+      </c>
+      <c r="F93">
+        <v>0</v>
+      </c>
+      <c r="G93">
+        <v>12.5</v>
+      </c>
+      <c r="H93">
+        <v>0</v>
+      </c>
+      <c r="I93">
+        <v>0</v>
+      </c>
+      <c r="J93">
+        <v>0</v>
+      </c>
+      <c r="K93">
+        <v>0</v>
+      </c>
+      <c r="L93">
+        <v>0</v>
+      </c>
+      <c r="M93">
+        <v>0</v>
+      </c>
+      <c r="N93">
+        <v>0</v>
+      </c>
+      <c r="O93" s="2">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="P93">
+        <v>0</v>
+      </c>
+      <c r="Q93">
+        <v>0</v>
+      </c>
+      <c r="R93" s="1">
+        <v>0</v>
+      </c>
+      <c r="S93" s="1">
+        <v>0</v>
+      </c>
+      <c r="T93" s="2">
+        <v>4.9000000000000004</v>
+      </c>
+    </row>
+    <row r="94" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A94" s="3">
+        <v>93</v>
+      </c>
+      <c r="B94" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C94" s="3">
+        <v>0</v>
+      </c>
+      <c r="D94" s="3">
+        <v>0</v>
+      </c>
+      <c r="E94" s="3">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3">
+        <v>0</v>
+      </c>
+      <c r="G94" s="3">
+        <v>0</v>
+      </c>
+      <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
+        <v>0</v>
+      </c>
+      <c r="K94" s="3">
+        <v>0</v>
+      </c>
+      <c r="L94" s="3">
+        <v>10.9</v>
+      </c>
+      <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3">
+        <v>10.6</v>
+      </c>
+      <c r="O94" s="4">
+        <v>2.7</v>
+      </c>
+      <c r="P94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+      <c r="R94" s="5">
+        <v>0</v>
+      </c>
+      <c r="S94" s="5">
+        <v>0</v>
+      </c>
+      <c r="T94" s="4">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="95" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A95">
+        <v>94</v>
+      </c>
+      <c r="B95" t="s">
+        <v>113</v>
+      </c>
+      <c r="C95">
+        <v>0</v>
+      </c>
+      <c r="D95">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="E95">
+        <v>0</v>
+      </c>
+      <c r="F95">
+        <v>0</v>
+      </c>
+      <c r="G95">
+        <v>0</v>
+      </c>
+      <c r="H95">
+        <v>0</v>
+      </c>
+      <c r="I95">
+        <v>12.4</v>
+      </c>
+      <c r="J95">
+        <v>0</v>
+      </c>
+      <c r="K95">
+        <v>0</v>
+      </c>
+      <c r="L95">
+        <v>0</v>
+      </c>
+      <c r="M95">
+        <v>0</v>
+      </c>
+      <c r="N95">
+        <v>0</v>
+      </c>
+      <c r="O95" s="2">
+        <v>1.4</v>
+      </c>
+      <c r="P95">
+        <v>0</v>
+      </c>
+      <c r="Q95">
+        <v>0</v>
+      </c>
+      <c r="R95" s="1">
+        <v>0</v>
+      </c>
+      <c r="S95" s="1">
+        <v>0</v>
+      </c>
+      <c r="T95" s="2">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="96" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A96">
+        <v>95</v>
+      </c>
+      <c r="B96" t="s">
+        <v>114</v>
+      </c>
+      <c r="C96">
+        <v>0</v>
+      </c>
+      <c r="D96">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>8.4</v>
+      </c>
+      <c r="K96">
+        <v>0</v>
+      </c>
+      <c r="L96">
+        <v>0</v>
+      </c>
+      <c r="M96">
+        <v>0</v>
+      </c>
+      <c r="N96">
+        <v>0</v>
+      </c>
+      <c r="O96" s="2">
+        <v>2.1</v>
+      </c>
+      <c r="P96">
+        <v>0</v>
+      </c>
+      <c r="Q96">
+        <v>0</v>
+      </c>
+      <c r="R96" s="1">
+        <v>0</v>
+      </c>
+      <c r="S96" s="1">
+        <v>0</v>
+      </c>
+      <c r="T96" s="2">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="97" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A97">
+        <v>96</v>
+      </c>
+      <c r="B97" t="s">
+        <v>115</v>
+      </c>
+      <c r="C97">
+        <v>0</v>
+      </c>
+      <c r="D97">
+        <v>8.5</v>
+      </c>
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+      <c r="J97">
+        <v>0</v>
+      </c>
+      <c r="K97">
+        <v>12.5</v>
+      </c>
+      <c r="L97">
+        <v>0</v>
+      </c>
+      <c r="M97">
+        <v>0</v>
+      </c>
+      <c r="N97">
+        <v>0</v>
+      </c>
+      <c r="O97" s="2">
+        <v>2.7</v>
+      </c>
+      <c r="P97">
+        <v>0</v>
+      </c>
+      <c r="Q97">
+        <v>0</v>
+      </c>
+      <c r="R97" s="1">
+        <v>0</v>
+      </c>
+      <c r="S97" s="1">
+        <v>0</v>
+      </c>
+      <c r="T97" s="2">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="98" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A98">
+        <v>97</v>
+      </c>
+      <c r="B98" t="s">
+        <v>116</v>
+      </c>
+      <c r="C98">
+        <v>0</v>
+      </c>
+      <c r="D98">
+        <v>12.7</v>
+      </c>
+      <c r="E98">
+        <v>0</v>
+      </c>
+      <c r="F98">
+        <v>0</v>
+      </c>
+      <c r="G98">
+        <v>0</v>
+      </c>
+      <c r="H98">
+        <v>0</v>
+      </c>
+      <c r="I98">
+        <v>0</v>
+      </c>
+      <c r="J98">
+        <v>0</v>
+      </c>
+      <c r="K98">
+        <v>0</v>
+      </c>
+      <c r="L98">
+        <v>11</v>
+      </c>
+      <c r="M98">
+        <v>0</v>
+      </c>
+      <c r="N98">
+        <v>0</v>
+      </c>
+      <c r="O98" s="2">
+        <v>2.9</v>
+      </c>
+      <c r="P98">
+        <v>0</v>
+      </c>
+      <c r="Q98">
+        <v>0</v>
+      </c>
+      <c r="R98" s="1">
+        <v>0</v>
+      </c>
+      <c r="S98" s="1">
+        <v>0</v>
+      </c>
+      <c r="T98" s="2">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="99" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A99">
+        <v>98</v>
+      </c>
+      <c r="B99" t="s">
+        <v>117</v>
+      </c>
+      <c r="C99">
+        <v>0</v>
+      </c>
+      <c r="D99">
+        <v>11.8</v>
+      </c>
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+      <c r="J99">
+        <v>0</v>
+      </c>
+      <c r="K99">
+        <v>0</v>
+      </c>
+      <c r="L99">
+        <v>0</v>
+      </c>
+      <c r="M99">
+        <v>9.5</v>
+      </c>
+      <c r="N99">
+        <v>0</v>
+      </c>
+      <c r="O99" s="2">
+        <v>2.6</v>
+      </c>
+      <c r="P99">
+        <v>0</v>
+      </c>
+      <c r="Q99">
+        <v>0</v>
+      </c>
+      <c r="R99" s="1">
+        <v>0</v>
+      </c>
+      <c r="S99" s="1">
+        <v>0</v>
+      </c>
+      <c r="T99" s="2">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="100" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A100">
+        <v>99</v>
+      </c>
+      <c r="B100" t="s">
+        <v>118</v>
+      </c>
+      <c r="C100">
+        <v>0</v>
+      </c>
+      <c r="D100">
+        <v>8.6</v>
+      </c>
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+      <c r="K100">
+        <v>0</v>
+      </c>
+      <c r="L100">
+        <v>0</v>
+      </c>
+      <c r="M100">
+        <v>0</v>
+      </c>
+      <c r="N100">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="O100" s="2">
+        <v>1.9</v>
+      </c>
+      <c r="P100">
+        <v>0</v>
+      </c>
+      <c r="Q100">
+        <v>0</v>
+      </c>
+      <c r="R100" s="1">
+        <v>0</v>
+      </c>
+      <c r="S100" s="1">
+        <v>0</v>
+      </c>
+      <c r="T100" s="2">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="101" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A101">
+        <v>100</v>
+      </c>
+      <c r="B101" t="s">
+        <v>119</v>
+      </c>
+      <c r="C101">
+        <v>0</v>
+      </c>
+      <c r="D101">
+        <v>0</v>
+      </c>
+      <c r="E101">
+        <v>12</v>
+      </c>
+      <c r="F101">
+        <v>9</v>
+      </c>
+      <c r="G101">
+        <v>0</v>
+      </c>
+      <c r="H101">
+        <v>0</v>
+      </c>
+      <c r="I101">
+        <v>0</v>
+      </c>
+      <c r="J101">
+        <v>0</v>
+      </c>
+      <c r="K101">
+        <v>0</v>
+      </c>
+      <c r="L101">
+        <v>0</v>
+      </c>
+      <c r="M101">
+        <v>0</v>
+      </c>
+      <c r="N101">
+        <v>0</v>
+      </c>
+      <c r="O101" s="2">
+        <v>2.8</v>
+      </c>
+      <c r="P101">
+        <v>0</v>
+      </c>
+      <c r="Q101">
+        <v>0</v>
+      </c>
+      <c r="R101" s="1">
+        <v>0</v>
+      </c>
+      <c r="S101" s="1">
+        <v>0</v>
+      </c>
+      <c r="T101" s="2">
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="102" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A102" s="3">
+        <v>101</v>
+      </c>
+      <c r="B102" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C102" s="3">
+        <v>0</v>
+      </c>
+      <c r="D102" s="3">
+        <v>0</v>
+      </c>
+      <c r="E102" s="3">
+        <v>0</v>
+      </c>
+      <c r="F102" s="3">
+        <v>0</v>
+      </c>
+      <c r="G102" s="3">
+        <v>0</v>
+      </c>
+      <c r="H102" s="3">
+        <v>0</v>
+      </c>
+      <c r="I102" s="3">
+        <v>0</v>
+      </c>
+      <c r="J102" s="3">
+        <v>0</v>
+      </c>
+      <c r="K102" s="3">
+        <v>0</v>
+      </c>
+      <c r="L102" s="3">
+        <v>0</v>
+      </c>
+      <c r="M102" s="3">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="N102" s="3">
+        <v>10.6</v>
+      </c>
+      <c r="O102" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="5">
+        <v>0</v>
+      </c>
+      <c r="S102" s="5">
+        <v>0</v>
+      </c>
+      <c r="T102" s="4">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="103" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A103">
+        <v>102</v>
+      </c>
+      <c r="B103" t="s">
+        <v>121</v>
+      </c>
+      <c r="C103">
+        <v>0</v>
+      </c>
+      <c r="D103">
+        <v>0</v>
+      </c>
+      <c r="E103">
+        <v>9.6</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+      <c r="J103">
+        <v>0</v>
+      </c>
+      <c r="K103">
+        <v>0</v>
+      </c>
+      <c r="L103">
+        <v>0</v>
+      </c>
+      <c r="M103">
+        <v>0</v>
+      </c>
+      <c r="N103">
+        <v>0</v>
+      </c>
+      <c r="O103" s="2">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="P103">
+        <v>0</v>
+      </c>
+      <c r="Q103">
+        <v>0</v>
+      </c>
+      <c r="R103" s="1">
+        <v>0</v>
+      </c>
+      <c r="S103" s="1">
+        <v>0</v>
+      </c>
+      <c r="T103" s="2">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="104" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A104">
+        <v>103</v>
+      </c>
+      <c r="B104" t="s">
+        <v>122</v>
+      </c>
+      <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>12.9</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <v>8.1</v>
+      </c>
+      <c r="J104">
+        <v>0</v>
+      </c>
+      <c r="K104">
+        <v>0</v>
+      </c>
+      <c r="L104">
+        <v>0</v>
+      </c>
+      <c r="M104">
+        <v>0</v>
+      </c>
+      <c r="N104">
+        <v>0</v>
+      </c>
+      <c r="O104" s="2">
+        <v>1.7</v>
+      </c>
+      <c r="P104">
+        <v>0</v>
+      </c>
+      <c r="Q104">
+        <v>0</v>
+      </c>
+      <c r="R104" s="1">
+        <v>0</v>
+      </c>
+      <c r="S104" s="1">
+        <v>0</v>
+      </c>
+      <c r="T104" s="2">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="105" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A105">
+        <v>104</v>
+      </c>
+      <c r="B105" t="s">
+        <v>123</v>
+      </c>
+      <c r="C105">
+        <v>0</v>
+      </c>
+      <c r="D105">
+        <v>0</v>
+      </c>
+      <c r="E105">
+        <v>10.7</v>
+      </c>
+      <c r="F105">
+        <v>0</v>
+      </c>
+      <c r="G105">
+        <v>0</v>
+      </c>
+      <c r="H105">
+        <v>0</v>
+      </c>
+      <c r="I105">
+        <v>0</v>
+      </c>
+      <c r="J105">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="K105">
+        <v>0</v>
+      </c>
+      <c r="L105">
+        <v>0</v>
+      </c>
+      <c r="M105">
+        <v>0</v>
+      </c>
+      <c r="N105">
+        <v>0</v>
+      </c>
+      <c r="O105" s="2">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="P105">
+        <v>0</v>
+      </c>
+      <c r="Q105">
+        <v>0</v>
+      </c>
+      <c r="R105" s="1">
+        <v>0</v>
+      </c>
+      <c r="S105" s="1">
+        <v>0</v>
+      </c>
+      <c r="T105" s="2">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A106">
+        <v>105</v>
+      </c>
+      <c r="B106" t="s">
+        <v>124</v>
+      </c>
+      <c r="C106">
+        <v>0</v>
+      </c>
+      <c r="D106">
+        <v>0</v>
+      </c>
+      <c r="E106">
+        <v>10.7</v>
+      </c>
+      <c r="F106">
+        <v>0</v>
+      </c>
+      <c r="G106">
+        <v>0</v>
+      </c>
+      <c r="H106">
+        <v>0</v>
+      </c>
+      <c r="I106">
+        <v>0</v>
+      </c>
+      <c r="J106">
+        <v>0</v>
+      </c>
+      <c r="K106">
+        <v>12.2</v>
+      </c>
+      <c r="L106">
+        <v>0</v>
+      </c>
+      <c r="M106">
+        <v>0</v>
+      </c>
+      <c r="N106">
+        <v>0</v>
+      </c>
+      <c r="O106" s="2">
+        <v>1.9</v>
+      </c>
+      <c r="P106">
+        <v>0</v>
+      </c>
+      <c r="Q106">
+        <v>0</v>
+      </c>
+      <c r="R106" s="1">
+        <v>0</v>
+      </c>
+      <c r="S106" s="1">
+        <v>0</v>
+      </c>
+      <c r="T106" s="2">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="107" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A107">
+        <v>106</v>
+      </c>
+      <c r="B107" t="s">
+        <v>125</v>
+      </c>
+      <c r="C107">
+        <v>0</v>
+      </c>
+      <c r="D107">
+        <v>0</v>
+      </c>
+      <c r="E107">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="F107">
+        <v>0</v>
+      </c>
+      <c r="G107">
+        <v>0</v>
+      </c>
+      <c r="H107">
+        <v>0</v>
+      </c>
+      <c r="I107">
+        <v>0</v>
+      </c>
+      <c r="J107">
+        <v>0</v>
+      </c>
+      <c r="K107">
+        <v>0</v>
+      </c>
+      <c r="L107">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="M107">
+        <v>0</v>
+      </c>
+      <c r="N107">
+        <v>0</v>
+      </c>
+      <c r="O107" s="2">
+        <v>1.3</v>
+      </c>
+      <c r="P107">
+        <v>0</v>
+      </c>
+      <c r="Q107">
+        <v>0</v>
+      </c>
+      <c r="R107" s="1">
+        <v>0</v>
+      </c>
+      <c r="S107" s="1">
+        <v>0</v>
+      </c>
+      <c r="T107" s="2">
+        <v>4.9000000000000004</v>
+      </c>
+    </row>
+    <row r="108" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A108">
+        <v>107</v>
+      </c>
+      <c r="B108" t="s">
+        <v>126</v>
+      </c>
+      <c r="C108">
+        <v>0</v>
+      </c>
+      <c r="D108">
+        <v>0</v>
+      </c>
+      <c r="E108">
+        <v>12.2</v>
+      </c>
+      <c r="F108">
+        <v>0</v>
+      </c>
+      <c r="G108">
+        <v>0</v>
+      </c>
+      <c r="H108">
+        <v>0</v>
+      </c>
+      <c r="I108">
+        <v>0</v>
+      </c>
+      <c r="J108">
+        <v>0</v>
+      </c>
+      <c r="K108">
+        <v>0</v>
+      </c>
+      <c r="L108">
+        <v>0</v>
+      </c>
+      <c r="M108">
+        <v>11.6</v>
+      </c>
+      <c r="N108">
+        <v>0</v>
+      </c>
+      <c r="O108" s="2">
+        <v>2</v>
+      </c>
+      <c r="P108">
+        <v>0</v>
+      </c>
+      <c r="Q108">
+        <v>0</v>
+      </c>
+      <c r="R108" s="1">
+        <v>0</v>
+      </c>
+      <c r="S108" s="1">
+        <v>0</v>
+      </c>
+      <c r="T108" s="2">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A109">
+        <v>108</v>
+      </c>
+      <c r="B109" t="s">
+        <v>127</v>
+      </c>
+      <c r="C109">
+        <v>0</v>
+      </c>
+      <c r="D109">
+        <v>0</v>
+      </c>
+      <c r="E109">
+        <v>11.9</v>
+      </c>
+      <c r="F109">
+        <v>0</v>
+      </c>
+      <c r="G109">
+        <v>0</v>
+      </c>
+      <c r="H109">
+        <v>0</v>
+      </c>
+      <c r="I109">
+        <v>0</v>
+      </c>
+      <c r="J109">
+        <v>0</v>
+      </c>
+      <c r="K109">
+        <v>0</v>
+      </c>
+      <c r="L109">
+        <v>0</v>
+      </c>
+      <c r="M109">
+        <v>0</v>
+      </c>
+      <c r="N109">
+        <v>10.7</v>
+      </c>
+      <c r="O109" s="2">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="P109">
+        <v>0</v>
+      </c>
+      <c r="Q109">
+        <v>0</v>
+      </c>
+      <c r="R109" s="1">
+        <v>0</v>
+      </c>
+      <c r="S109" s="1">
+        <v>0</v>
+      </c>
+      <c r="T109" s="2">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="110" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A110">
+        <v>109</v>
+      </c>
+      <c r="B110" t="s">
+        <v>128</v>
+      </c>
+      <c r="C110">
+        <v>0</v>
+      </c>
+      <c r="D110">
+        <v>0</v>
+      </c>
+      <c r="E110">
+        <v>0</v>
+      </c>
+      <c r="F110">
+        <v>10.8</v>
+      </c>
+      <c r="G110">
+        <v>12.9</v>
+      </c>
+      <c r="H110">
+        <v>0</v>
+      </c>
+      <c r="I110">
+        <v>0</v>
+      </c>
+      <c r="J110">
+        <v>0</v>
+      </c>
+      <c r="K110">
+        <v>0</v>
+      </c>
+      <c r="L110">
+        <v>0</v>
+      </c>
+      <c r="M110">
+        <v>0</v>
+      </c>
+      <c r="N110">
+        <v>0</v>
+      </c>
+      <c r="O110" s="2">
+        <v>1.8</v>
+      </c>
+      <c r="P110">
+        <v>0</v>
+      </c>
+      <c r="Q110">
+        <v>0</v>
+      </c>
+      <c r="R110" s="1">
+        <v>0</v>
+      </c>
+      <c r="S110" s="1">
+        <v>0</v>
+      </c>
+      <c r="T110" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="111" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A111">
+        <v>110</v>
+      </c>
+      <c r="B111" t="s">
+        <v>129</v>
+      </c>
+      <c r="C111">
+        <v>0</v>
+      </c>
+      <c r="D111">
+        <v>0</v>
+      </c>
+      <c r="E111">
+        <v>0</v>
+      </c>
+      <c r="F111">
+        <v>10.9</v>
+      </c>
+      <c r="G111">
+        <v>0</v>
+      </c>
+      <c r="H111">
+        <v>12</v>
+      </c>
+      <c r="I111">
+        <v>0</v>
+      </c>
+      <c r="J111">
+        <v>0</v>
+      </c>
+      <c r="K111">
+        <v>0</v>
+      </c>
+      <c r="L111">
+        <v>0</v>
+      </c>
+      <c r="M111">
+        <v>0</v>
+      </c>
+      <c r="N111">
+        <v>0</v>
+      </c>
+      <c r="O111" s="2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="P111">
+        <v>0</v>
+      </c>
+      <c r="Q111">
+        <v>0</v>
+      </c>
+      <c r="R111" s="1">
+        <v>0</v>
+      </c>
+      <c r="S111" s="1">
+        <v>0</v>
+      </c>
+      <c r="T111" s="2">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A112">
+        <v>111</v>
+      </c>
+      <c r="B112" t="s">
+        <v>130</v>
+      </c>
+      <c r="C112">
+        <v>0</v>
+      </c>
+      <c r="D112">
+        <v>0</v>
+      </c>
+      <c r="E112">
+        <v>0</v>
+      </c>
+      <c r="F112">
+        <v>9.4</v>
+      </c>
+      <c r="G112">
+        <v>0</v>
+      </c>
+      <c r="H112">
+        <v>0</v>
+      </c>
+      <c r="I112">
+        <v>8.9</v>
+      </c>
+      <c r="J112">
+        <v>0</v>
+      </c>
+      <c r="K112">
+        <v>0</v>
+      </c>
+      <c r="L112">
+        <v>0</v>
+      </c>
+      <c r="M112">
+        <v>0</v>
+      </c>
+      <c r="N112">
+        <v>0</v>
+      </c>
+      <c r="O112" s="2">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="P112">
+        <v>0</v>
+      </c>
+      <c r="Q112">
+        <v>0</v>
+      </c>
+      <c r="R112" s="1">
+        <v>0</v>
+      </c>
+      <c r="S112" s="1">
+        <v>0</v>
+      </c>
+      <c r="T112" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A113">
+        <v>112</v>
+      </c>
+      <c r="B113" t="s">
+        <v>131</v>
+      </c>
+      <c r="C113">
+        <v>0</v>
+      </c>
+      <c r="D113">
+        <v>0</v>
+      </c>
+      <c r="E113">
+        <v>0</v>
+      </c>
+      <c r="F113">
+        <v>9.6</v>
+      </c>
+      <c r="G113">
+        <v>0</v>
+      </c>
+      <c r="H113">
+        <v>0</v>
+      </c>
+      <c r="I113">
+        <v>0</v>
+      </c>
+      <c r="J113">
+        <v>11.9</v>
+      </c>
+      <c r="K113">
+        <v>0</v>
+      </c>
+      <c r="L113">
+        <v>0</v>
+      </c>
+      <c r="M113">
+        <v>0</v>
+      </c>
+      <c r="N113">
+        <v>0</v>
+      </c>
+      <c r="O113" s="2">
+        <v>1.6</v>
+      </c>
+      <c r="P113">
+        <v>0</v>
+      </c>
+      <c r="Q113">
+        <v>0</v>
+      </c>
+      <c r="R113" s="1">
+        <v>0</v>
+      </c>
+      <c r="S113" s="1">
+        <v>0</v>
+      </c>
+      <c r="T113" s="2">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="114" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A114">
+        <v>113</v>
+      </c>
+      <c r="B114" t="s">
+        <v>132</v>
+      </c>
+      <c r="C114">
+        <v>0</v>
+      </c>
+      <c r="D114">
+        <v>0</v>
+      </c>
+      <c r="E114">
+        <v>0</v>
+      </c>
+      <c r="F114">
+        <v>10.4</v>
+      </c>
+      <c r="G114">
+        <v>0</v>
+      </c>
+      <c r="H114">
+        <v>0</v>
+      </c>
+      <c r="I114">
+        <v>0</v>
+      </c>
+      <c r="J114">
+        <v>0</v>
+      </c>
+      <c r="K114">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="L114">
+        <v>0</v>
+      </c>
+      <c r="M114">
+        <v>0</v>
+      </c>
+      <c r="N114">
+        <v>0</v>
+      </c>
+      <c r="O114" s="2">
+        <v>1.6</v>
+      </c>
+      <c r="P114">
+        <v>0</v>
+      </c>
+      <c r="Q114">
+        <v>0</v>
+      </c>
+      <c r="R114" s="1">
+        <v>0</v>
+      </c>
+      <c r="S114" s="1">
+        <v>0</v>
+      </c>
+      <c r="T114" s="2">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="115" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A115">
+        <v>114</v>
+      </c>
+      <c r="B115" t="s">
+        <v>133</v>
+      </c>
+      <c r="C115">
+        <v>0</v>
+      </c>
+      <c r="D115">
+        <v>0</v>
+      </c>
+      <c r="E115">
+        <v>0</v>
+      </c>
+      <c r="F115">
+        <v>10.3</v>
+      </c>
+      <c r="G115">
+        <v>0</v>
+      </c>
+      <c r="H115">
+        <v>0</v>
+      </c>
+      <c r="I115">
+        <v>0</v>
+      </c>
+      <c r="J115">
+        <v>0</v>
+      </c>
+      <c r="K115">
+        <v>0</v>
+      </c>
+      <c r="L115">
+        <v>10</v>
+      </c>
+      <c r="M115">
+        <v>0</v>
+      </c>
+      <c r="N115">
+        <v>0</v>
+      </c>
+      <c r="O115" s="2">
+        <v>1.8</v>
+      </c>
+      <c r="P115">
+        <v>0</v>
+      </c>
+      <c r="Q115">
+        <v>0</v>
+      </c>
+      <c r="R115" s="1">
+        <v>0</v>
+      </c>
+      <c r="S115" s="1">
+        <v>0</v>
+      </c>
+      <c r="T115" s="2">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A116">
+        <v>115</v>
+      </c>
+      <c r="B116" t="s">
+        <v>134</v>
+      </c>
+      <c r="C116">
+        <v>0</v>
+      </c>
+      <c r="D116">
+        <v>0</v>
+      </c>
+      <c r="E116">
+        <v>0</v>
+      </c>
+      <c r="F116">
+        <v>12.3</v>
+      </c>
+      <c r="G116">
+        <v>0</v>
+      </c>
+      <c r="H116">
+        <v>0</v>
+      </c>
+      <c r="I116">
+        <v>0</v>
+      </c>
+      <c r="J116">
+        <v>0</v>
+      </c>
+      <c r="K116">
+        <v>0</v>
+      </c>
+      <c r="L116">
+        <v>0</v>
+      </c>
+      <c r="M116">
+        <v>10.1</v>
+      </c>
+      <c r="N116">
+        <v>0</v>
+      </c>
+      <c r="O116" s="2">
+        <v>2.4</v>
+      </c>
+      <c r="P116">
+        <v>0</v>
+      </c>
+      <c r="Q116">
+        <v>0</v>
+      </c>
+      <c r="R116" s="1">
+        <v>0</v>
+      </c>
+      <c r="S116" s="1">
+        <v>0</v>
+      </c>
+      <c r="T116" s="2">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="117" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A117" s="3">
+        <v>116</v>
+      </c>
+      <c r="B117" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="C117" s="3">
+        <v>0</v>
+      </c>
+      <c r="D117" s="3">
+        <v>0</v>
+      </c>
+      <c r="E117" s="3">
+        <v>0</v>
+      </c>
+      <c r="F117" s="3">
+        <v>0</v>
+      </c>
+      <c r="G117" s="3">
+        <v>0</v>
+      </c>
+      <c r="H117" s="3">
+        <v>0</v>
+      </c>
+      <c r="I117" s="3">
+        <v>0</v>
+      </c>
+      <c r="J117" s="3">
+        <v>0</v>
+      </c>
+      <c r="K117" s="3">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="L117" s="3">
+        <v>0</v>
+      </c>
+      <c r="M117" s="3">
+        <v>11.5</v>
+      </c>
+      <c r="N117" s="3">
+        <v>0</v>
+      </c>
+      <c r="O117" s="4">
+        <v>1.4</v>
+      </c>
+      <c r="P117" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q117" s="3">
+        <v>0</v>
+      </c>
+      <c r="R117" s="5">
+        <v>0</v>
+      </c>
+      <c r="S117" s="5">
+        <v>0</v>
+      </c>
+      <c r="T117" s="4">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="118" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A118">
+        <v>117</v>
+      </c>
+      <c r="B118" t="s">
+        <v>136</v>
+      </c>
+      <c r="C118">
+        <v>0</v>
+      </c>
+      <c r="D118">
+        <v>0</v>
+      </c>
+      <c r="E118">
+        <v>0</v>
+      </c>
+      <c r="F118">
+        <v>0</v>
+      </c>
+      <c r="G118">
+        <v>10.1</v>
+      </c>
+      <c r="H118">
+        <v>9.6</v>
+      </c>
+      <c r="I118">
+        <v>0</v>
+      </c>
+      <c r="J118">
+        <v>0</v>
+      </c>
+      <c r="K118">
+        <v>0</v>
+      </c>
+      <c r="L118">
+        <v>0</v>
+      </c>
+      <c r="M118">
+        <v>0</v>
+      </c>
+      <c r="N118">
+        <v>0</v>
+      </c>
+      <c r="O118" s="2">
+        <v>3</v>
+      </c>
+      <c r="P118">
+        <v>0</v>
+      </c>
+      <c r="Q118">
+        <v>0</v>
+      </c>
+      <c r="R118" s="1">
+        <v>0</v>
+      </c>
+      <c r="S118" s="1">
+        <v>0</v>
+      </c>
+      <c r="T118" s="2">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="119" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A119">
+        <v>118</v>
+      </c>
+      <c r="B119" t="s">
+        <v>137</v>
+      </c>
+      <c r="C119">
+        <v>0</v>
+      </c>
+      <c r="D119">
+        <v>0</v>
+      </c>
+      <c r="E119">
+        <v>0</v>
+      </c>
+      <c r="F119">
+        <v>0</v>
+      </c>
+      <c r="G119">
+        <v>13</v>
+      </c>
+      <c r="H119">
+        <v>0</v>
+      </c>
+      <c r="I119">
+        <v>8.6</v>
+      </c>
+      <c r="J119">
+        <v>0</v>
+      </c>
+      <c r="K119">
+        <v>0</v>
+      </c>
+      <c r="L119">
+        <v>0</v>
+      </c>
+      <c r="M119">
+        <v>0</v>
+      </c>
+      <c r="N119">
+        <v>0</v>
+      </c>
+      <c r="O119" s="2">
+        <v>2.4</v>
+      </c>
+      <c r="P119">
+        <v>0</v>
+      </c>
+      <c r="Q119">
+        <v>0</v>
+      </c>
+      <c r="R119" s="1">
+        <v>0</v>
+      </c>
+      <c r="S119" s="1">
+        <v>0</v>
+      </c>
+      <c r="T119" s="2">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="120" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A120">
+        <v>119</v>
+      </c>
+      <c r="B120" t="s">
+        <v>138</v>
+      </c>
+      <c r="C120">
+        <v>0</v>
+      </c>
+      <c r="D120">
+        <v>0</v>
+      </c>
+      <c r="E120">
+        <v>0</v>
+      </c>
+      <c r="F120">
+        <v>0</v>
+      </c>
+      <c r="G120">
+        <v>9.1</v>
+      </c>
+      <c r="H120">
+        <v>0</v>
+      </c>
+      <c r="I120">
+        <v>0</v>
+      </c>
+      <c r="J120">
+        <v>11.3</v>
+      </c>
+      <c r="K120">
+        <v>0</v>
+      </c>
+      <c r="L120">
+        <v>0</v>
+      </c>
+      <c r="M120">
+        <v>0</v>
+      </c>
+      <c r="N120">
+        <v>0</v>
+      </c>
+      <c r="O120" s="2">
+        <v>2.9</v>
+      </c>
+      <c r="P120">
+        <v>0</v>
+      </c>
+      <c r="Q120">
+        <v>0</v>
+      </c>
+      <c r="R120" s="1">
+        <v>0</v>
+      </c>
+      <c r="S120" s="1">
+        <v>0</v>
+      </c>
+      <c r="T120" s="2">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A121">
+        <v>120</v>
+      </c>
+      <c r="B121" t="s">
+        <v>139</v>
+      </c>
+      <c r="C121">
+        <v>0</v>
+      </c>
+      <c r="D121">
+        <v>0</v>
+      </c>
+      <c r="E121">
+        <v>0</v>
+      </c>
+      <c r="F121">
+        <v>0</v>
+      </c>
+      <c r="G121">
+        <v>9.9</v>
+      </c>
+      <c r="H121">
+        <v>0</v>
+      </c>
+      <c r="I121">
+        <v>0</v>
+      </c>
+      <c r="J121">
+        <v>0</v>
+      </c>
+      <c r="K121">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="L121">
+        <v>0</v>
+      </c>
+      <c r="M121">
+        <v>0</v>
+      </c>
+      <c r="N121">
+        <v>0</v>
+      </c>
+      <c r="O121" s="2">
+        <v>1.4</v>
+      </c>
+      <c r="P121">
+        <v>0</v>
+      </c>
+      <c r="Q121">
+        <v>0</v>
+      </c>
+      <c r="R121" s="1">
+        <v>0</v>
+      </c>
+      <c r="S121" s="1">
+        <v>0</v>
+      </c>
+      <c r="T121" s="2">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="122" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A122">
+        <v>121</v>
+      </c>
+      <c r="B122" t="s">
+        <v>140</v>
+      </c>
+      <c r="C122">
+        <v>0</v>
+      </c>
+      <c r="D122">
+        <v>0</v>
+      </c>
+      <c r="E122">
+        <v>0</v>
+      </c>
+      <c r="F122">
+        <v>0</v>
+      </c>
+      <c r="G122">
+        <v>10.5</v>
+      </c>
+      <c r="H122">
+        <v>0</v>
+      </c>
+      <c r="I122">
+        <v>0</v>
+      </c>
+      <c r="J122">
+        <v>0</v>
+      </c>
+      <c r="K122">
+        <v>0</v>
+      </c>
+      <c r="L122">
+        <v>9.9</v>
+      </c>
+      <c r="M122">
+        <v>0</v>
+      </c>
+      <c r="N122">
+        <v>0</v>
+      </c>
+      <c r="O122" s="2">
+        <v>2.6</v>
+      </c>
+      <c r="P122">
+        <v>0</v>
+      </c>
+      <c r="Q122">
+        <v>0</v>
+      </c>
+      <c r="R122" s="1">
+        <v>0</v>
+      </c>
+      <c r="S122" s="1">
+        <v>0</v>
+      </c>
+      <c r="T122" s="2">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="123" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A123">
+        <v>122</v>
+      </c>
+      <c r="B123" t="s">
+        <v>141</v>
+      </c>
+      <c r="C123">
+        <v>0</v>
+      </c>
+      <c r="D123">
+        <v>0</v>
+      </c>
+      <c r="E123">
+        <v>0</v>
+      </c>
+      <c r="F123">
+        <v>0</v>
+      </c>
+      <c r="G123">
+        <v>8.1</v>
+      </c>
+      <c r="H123">
+        <v>0</v>
+      </c>
+      <c r="I123">
+        <v>0</v>
+      </c>
+      <c r="J123">
+        <v>0</v>
+      </c>
+      <c r="K123">
+        <v>0</v>
+      </c>
+      <c r="L123">
+        <v>0</v>
+      </c>
+      <c r="M123">
+        <v>9</v>
+      </c>
+      <c r="N123">
+        <v>0</v>
+      </c>
+      <c r="O123" s="2">
+        <v>1.7</v>
+      </c>
+      <c r="P123">
+        <v>0</v>
+      </c>
+      <c r="Q123">
+        <v>0</v>
+      </c>
+      <c r="R123" s="1">
+        <v>0</v>
+      </c>
+      <c r="S123" s="1">
+        <v>0</v>
+      </c>
+      <c r="T123" s="2">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="124" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A124">
+        <v>123</v>
+      </c>
+      <c r="B124" t="s">
+        <v>142</v>
+      </c>
+      <c r="C124">
+        <v>0</v>
+      </c>
+      <c r="D124">
+        <v>0</v>
+      </c>
+      <c r="E124">
+        <v>0</v>
+      </c>
+      <c r="F124">
+        <v>0</v>
+      </c>
+      <c r="G124">
+        <v>11.2</v>
+      </c>
+      <c r="H124">
+        <v>0</v>
+      </c>
+      <c r="I124">
+        <v>0</v>
+      </c>
+      <c r="J124">
+        <v>0</v>
+      </c>
+      <c r="K124">
+        <v>0</v>
+      </c>
+      <c r="L124">
+        <v>0</v>
+      </c>
+      <c r="M124">
+        <v>0</v>
+      </c>
+      <c r="N124">
+        <v>11.2</v>
+      </c>
+      <c r="O124" s="2">
+        <v>2</v>
+      </c>
+      <c r="P124">
+        <v>0</v>
+      </c>
+      <c r="Q124">
+        <v>0</v>
+      </c>
+      <c r="R124" s="1">
+        <v>0</v>
+      </c>
+      <c r="S124" s="1">
+        <v>0</v>
+      </c>
+      <c r="T124" s="2">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="125" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A125">
+        <v>124</v>
+      </c>
+      <c r="B125" t="s">
+        <v>143</v>
+      </c>
+      <c r="C125">
+        <v>0</v>
+      </c>
+      <c r="D125">
+        <v>0</v>
+      </c>
+      <c r="E125">
+        <v>0</v>
+      </c>
+      <c r="F125">
+        <v>0</v>
+      </c>
+      <c r="G125">
+        <v>0</v>
+      </c>
+      <c r="H125">
+        <v>11.4</v>
+      </c>
+      <c r="I125">
+        <v>9.4</v>
+      </c>
+      <c r="J125">
+        <v>0</v>
+      </c>
+      <c r="K125">
+        <v>0</v>
+      </c>
+      <c r="L125">
+        <v>0</v>
+      </c>
+      <c r="M125">
+        <v>0</v>
+      </c>
+      <c r="N125">
+        <v>0</v>
+      </c>
+      <c r="O125" s="2">
+        <v>2.1</v>
+      </c>
+      <c r="P125">
+        <v>0</v>
+      </c>
+      <c r="Q125">
+        <v>0</v>
+      </c>
+      <c r="R125" s="1">
+        <v>0</v>
+      </c>
+      <c r="S125" s="1">
+        <v>0</v>
+      </c>
+      <c r="T125" s="2">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="126" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A126">
+        <v>125</v>
+      </c>
+      <c r="B126" t="s">
+        <v>144</v>
+      </c>
+      <c r="C126">
+        <v>0</v>
+      </c>
+      <c r="D126">
+        <v>0</v>
+      </c>
+      <c r="E126">
+        <v>0</v>
+      </c>
+      <c r="F126">
+        <v>0</v>
+      </c>
+      <c r="G126">
+        <v>0</v>
+      </c>
+      <c r="H126">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="I126">
+        <v>0</v>
+      </c>
+      <c r="J126">
+        <v>11.6</v>
+      </c>
+      <c r="K126">
+        <v>0</v>
+      </c>
+      <c r="L126">
+        <v>0</v>
+      </c>
+      <c r="M126">
+        <v>0</v>
+      </c>
+      <c r="N126">
+        <v>0</v>
+      </c>
+      <c r="O126" s="2">
+        <v>3</v>
+      </c>
+      <c r="P126">
+        <v>0</v>
+      </c>
+      <c r="Q126">
+        <v>0</v>
+      </c>
+      <c r="R126" s="1">
+        <v>0</v>
+      </c>
+      <c r="S126" s="1">
+        <v>0</v>
+      </c>
+      <c r="T126" s="2">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="127" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A127">
+        <v>126</v>
+      </c>
+      <c r="B127" t="s">
+        <v>145</v>
+      </c>
+      <c r="C127">
+        <v>0</v>
+      </c>
+      <c r="D127">
+        <v>0</v>
+      </c>
+      <c r="E127">
+        <v>0</v>
+      </c>
+      <c r="F127">
+        <v>0</v>
+      </c>
+      <c r="G127">
+        <v>0</v>
+      </c>
+      <c r="H127">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="I127">
+        <v>0</v>
+      </c>
+      <c r="J127">
+        <v>0</v>
+      </c>
+      <c r="K127">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="L127">
+        <v>0</v>
+      </c>
+      <c r="M127">
+        <v>0</v>
+      </c>
+      <c r="N127">
+        <v>0</v>
+      </c>
+      <c r="O127" s="2">
+        <v>1.3</v>
+      </c>
+      <c r="P127">
+        <v>0</v>
+      </c>
+      <c r="Q127">
+        <v>0</v>
+      </c>
+      <c r="R127" s="1">
+        <v>0</v>
+      </c>
+      <c r="S127" s="1">
+        <v>0</v>
+      </c>
+      <c r="T127" s="2">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="128" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A128">
+        <v>127</v>
+      </c>
+      <c r="B128" t="s">
+        <v>146</v>
+      </c>
+      <c r="C128">
+        <v>0</v>
+      </c>
+      <c r="D128">
+        <v>0</v>
+      </c>
+      <c r="E128">
+        <v>0</v>
+      </c>
+      <c r="F128">
+        <v>0</v>
+      </c>
+      <c r="G128">
+        <v>0</v>
+      </c>
+      <c r="H128">
+        <v>11.5</v>
+      </c>
+      <c r="I128">
+        <v>0</v>
+      </c>
+      <c r="J128">
+        <v>0</v>
+      </c>
+      <c r="K128">
+        <v>0</v>
+      </c>
+      <c r="L128">
+        <v>11.7</v>
+      </c>
+      <c r="M128">
+        <v>0</v>
+      </c>
+      <c r="N128">
+        <v>0</v>
+      </c>
+      <c r="O128" s="2">
+        <v>2</v>
+      </c>
+      <c r="P128">
+        <v>0</v>
+      </c>
+      <c r="Q128">
+        <v>0</v>
+      </c>
+      <c r="R128" s="1">
+        <v>0</v>
+      </c>
+      <c r="S128" s="1">
+        <v>0</v>
+      </c>
+      <c r="T128" s="2">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="129" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A129">
+        <v>128</v>
+      </c>
+      <c r="B129" t="s">
+        <v>147</v>
+      </c>
+      <c r="C129">
+        <v>0</v>
+      </c>
+      <c r="D129">
+        <v>0</v>
+      </c>
+      <c r="E129">
+        <v>0</v>
+      </c>
+      <c r="F129">
+        <v>0</v>
+      </c>
+      <c r="G129">
+        <v>0</v>
+      </c>
+      <c r="H129">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="I129">
+        <v>0</v>
+      </c>
+      <c r="J129">
+        <v>0</v>
+      </c>
+      <c r="K129">
+        <v>0</v>
+      </c>
+      <c r="L129">
+        <v>0</v>
+      </c>
+      <c r="M129">
+        <v>12.7</v>
+      </c>
+      <c r="N129">
+        <v>0</v>
+      </c>
+      <c r="O129" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="P129">
+        <v>0</v>
+      </c>
+      <c r="Q129">
+        <v>0</v>
+      </c>
+      <c r="R129" s="1">
+        <v>0</v>
+      </c>
+      <c r="S129" s="1">
+        <v>0</v>
+      </c>
+      <c r="T129" s="2">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="130" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A130">
+        <v>129</v>
+      </c>
+      <c r="B130" t="s">
+        <v>148</v>
+      </c>
+      <c r="C130">
+        <v>0</v>
+      </c>
+      <c r="D130">
+        <v>0</v>
+      </c>
+      <c r="E130">
+        <v>0</v>
+      </c>
+      <c r="F130">
+        <v>0</v>
+      </c>
+      <c r="G130">
+        <v>0</v>
+      </c>
+      <c r="H130">
+        <v>11</v>
+      </c>
+      <c r="I130">
+        <v>0</v>
+      </c>
+      <c r="J130">
+        <v>0</v>
+      </c>
+      <c r="K130">
+        <v>0</v>
+      </c>
+      <c r="L130">
+        <v>0</v>
+      </c>
+      <c r="M130">
+        <v>0</v>
+      </c>
+      <c r="N130">
+        <v>9.9</v>
+      </c>
+      <c r="O130" s="2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="P130">
+        <v>0</v>
+      </c>
+      <c r="Q130">
+        <v>0</v>
+      </c>
+      <c r="R130" s="1">
+        <v>0</v>
+      </c>
+      <c r="S130" s="1">
+        <v>0</v>
+      </c>
+      <c r="T130" s="2">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="131" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A131">
+        <v>130</v>
+      </c>
+      <c r="B131" t="s">
+        <v>149</v>
+      </c>
+      <c r="C131">
+        <v>0</v>
+      </c>
+      <c r="D131">
+        <v>0</v>
+      </c>
+      <c r="E131">
+        <v>0</v>
+      </c>
+      <c r="F131">
+        <v>0</v>
+      </c>
+      <c r="G131">
+        <v>0</v>
+      </c>
+      <c r="H131">
+        <v>0</v>
+      </c>
+      <c r="I131">
+        <v>11.7</v>
+      </c>
+      <c r="J131">
+        <v>8.1</v>
+      </c>
+      <c r="K131">
+        <v>0</v>
+      </c>
+      <c r="L131">
+        <v>0</v>
+      </c>
+      <c r="M131">
+        <v>0</v>
+      </c>
+      <c r="N131">
+        <v>0</v>
+      </c>
+      <c r="O131" s="2">
+        <v>2.9</v>
+      </c>
+      <c r="P131">
+        <v>0</v>
+      </c>
+      <c r="Q131">
+        <v>0</v>
+      </c>
+      <c r="R131" s="1">
+        <v>0</v>
+      </c>
+      <c r="S131" s="1">
+        <v>0</v>
+      </c>
+      <c r="T131" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="132" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A132" s="3">
+        <v>131</v>
+      </c>
+      <c r="B132" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="C132" s="3">
+        <v>0</v>
+      </c>
+      <c r="D132" s="3">
+        <v>0</v>
+      </c>
+      <c r="E132" s="3">
+        <v>0</v>
+      </c>
+      <c r="F132" s="3">
+        <v>0</v>
+      </c>
+      <c r="G132" s="3">
+        <v>0</v>
+      </c>
+      <c r="H132" s="3">
+        <v>0</v>
+      </c>
+      <c r="I132" s="3">
+        <v>0</v>
+      </c>
+      <c r="J132" s="3">
+        <v>0</v>
+      </c>
+      <c r="K132" s="3">
+        <v>11.6</v>
+      </c>
+      <c r="L132" s="3">
+        <v>0</v>
+      </c>
+      <c r="M132" s="3">
+        <v>0</v>
+      </c>
+      <c r="N132" s="3">
+        <v>8.5</v>
+      </c>
+      <c r="O132" s="4">
+        <v>2</v>
+      </c>
+      <c r="P132" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q132" s="3">
+        <v>0</v>
+      </c>
+      <c r="R132" s="5">
+        <v>0</v>
+      </c>
+      <c r="S132" s="5">
+        <v>0</v>
+      </c>
+      <c r="T132" s="4">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="133" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A133">
+        <v>132</v>
+      </c>
+      <c r="B133" t="s">
+        <v>151</v>
+      </c>
+      <c r="C133">
+        <v>0</v>
+      </c>
+      <c r="D133">
+        <v>0</v>
+      </c>
+      <c r="E133">
+        <v>0</v>
+      </c>
+      <c r="F133">
+        <v>0</v>
+      </c>
+      <c r="G133">
+        <v>0</v>
+      </c>
+      <c r="H133">
+        <v>0</v>
+      </c>
+      <c r="I133">
+        <v>12.1</v>
+      </c>
+      <c r="J133">
+        <v>0</v>
+      </c>
+      <c r="K133">
+        <v>0</v>
+      </c>
+      <c r="L133">
+        <v>12.9</v>
+      </c>
+      <c r="M133">
+        <v>0</v>
+      </c>
+      <c r="N133">
+        <v>0</v>
+      </c>
+      <c r="O133" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="P133">
+        <v>0</v>
+      </c>
+      <c r="Q133">
+        <v>0</v>
+      </c>
+      <c r="R133" s="1">
+        <v>0</v>
+      </c>
+      <c r="S133" s="1">
+        <v>0</v>
+      </c>
+      <c r="T133" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="134" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A134">
+        <v>133</v>
+      </c>
+      <c r="B134" t="s">
+        <v>152</v>
+      </c>
+      <c r="C134">
+        <v>0</v>
+      </c>
+      <c r="D134">
+        <v>0</v>
+      </c>
+      <c r="E134">
+        <v>0</v>
+      </c>
+      <c r="F134">
+        <v>0</v>
+      </c>
+      <c r="G134">
+        <v>0</v>
+      </c>
+      <c r="H134">
+        <v>0</v>
+      </c>
+      <c r="I134">
+        <v>12.8</v>
+      </c>
+      <c r="J134">
+        <v>0</v>
+      </c>
+      <c r="K134">
+        <v>0</v>
+      </c>
+      <c r="L134">
+        <v>0</v>
+      </c>
+      <c r="M134">
+        <v>12.6</v>
+      </c>
+      <c r="N134">
+        <v>0</v>
+      </c>
+      <c r="O134" s="2">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="P134">
+        <v>0</v>
+      </c>
+      <c r="Q134">
+        <v>0</v>
+      </c>
+      <c r="R134" s="1">
+        <v>0</v>
+      </c>
+      <c r="S134" s="1">
+        <v>0</v>
+      </c>
+      <c r="T134" s="2">
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="135" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A135">
+        <v>134</v>
+      </c>
+      <c r="B135" t="s">
+        <v>153</v>
+      </c>
+      <c r="C135">
+        <v>0</v>
+      </c>
+      <c r="D135">
+        <v>0</v>
+      </c>
+      <c r="E135">
+        <v>0</v>
+      </c>
+      <c r="F135">
+        <v>0</v>
+      </c>
+      <c r="G135">
+        <v>0</v>
+      </c>
+      <c r="H135">
+        <v>0</v>
+      </c>
+      <c r="I135">
+        <v>11.2</v>
+      </c>
+      <c r="J135">
+        <v>0</v>
+      </c>
+      <c r="K135">
+        <v>0</v>
+      </c>
+      <c r="L135">
+        <v>0</v>
+      </c>
+      <c r="M135">
+        <v>0</v>
+      </c>
+      <c r="N135">
+        <v>10.3</v>
+      </c>
+      <c r="O135" s="2">
+        <v>1</v>
+      </c>
+      <c r="P135">
+        <v>0</v>
+      </c>
+      <c r="Q135">
+        <v>0</v>
+      </c>
+      <c r="R135" s="1">
+        <v>0</v>
+      </c>
+      <c r="S135" s="1">
+        <v>0</v>
+      </c>
+      <c r="T135" s="2">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="136" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A136">
+        <v>135</v>
+      </c>
+      <c r="B136" t="s">
+        <v>154</v>
+      </c>
+      <c r="C136">
+        <v>0</v>
+      </c>
+      <c r="D136">
+        <v>0</v>
+      </c>
+      <c r="E136">
+        <v>0</v>
+      </c>
+      <c r="F136">
+        <v>0</v>
+      </c>
+      <c r="G136">
+        <v>0</v>
+      </c>
+      <c r="H136">
+        <v>0</v>
+      </c>
+      <c r="I136">
+        <v>0</v>
+      </c>
+      <c r="J136">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="K136">
+        <v>12.8</v>
+      </c>
+      <c r="L136">
+        <v>0</v>
+      </c>
+      <c r="M136">
+        <v>0</v>
+      </c>
+      <c r="N136">
+        <v>0</v>
+      </c>
+      <c r="O136" s="2">
+        <v>1.6</v>
+      </c>
+      <c r="P136">
+        <v>0</v>
+      </c>
+      <c r="Q136">
+        <v>0</v>
+      </c>
+      <c r="R136" s="1">
+        <v>0</v>
+      </c>
+      <c r="S136" s="1">
+        <v>0</v>
+      </c>
+      <c r="T136" s="2">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="137" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A137">
+        <v>136</v>
+      </c>
+      <c r="B137" t="s">
+        <v>155</v>
+      </c>
+      <c r="C137">
+        <v>0</v>
+      </c>
+      <c r="D137">
+        <v>0</v>
+      </c>
+      <c r="E137">
+        <v>0</v>
+      </c>
+      <c r="F137">
+        <v>0</v>
+      </c>
+      <c r="G137">
+        <v>0</v>
+      </c>
+      <c r="H137">
+        <v>0</v>
+      </c>
+      <c r="I137">
+        <v>0</v>
+      </c>
+      <c r="J137">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="K137">
+        <v>0</v>
+      </c>
+      <c r="L137">
+        <v>11.8</v>
+      </c>
+      <c r="M137">
+        <v>0</v>
+      </c>
+      <c r="N137">
+        <v>0</v>
+      </c>
+      <c r="O137" s="2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="P137">
+        <v>0</v>
+      </c>
+      <c r="Q137">
+        <v>0</v>
+      </c>
+      <c r="R137" s="1">
+        <v>0</v>
+      </c>
+      <c r="S137" s="1">
+        <v>0</v>
+      </c>
+      <c r="T137" s="2">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="138" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A138">
+        <v>137</v>
+      </c>
+      <c r="B138" t="s">
+        <v>156</v>
+      </c>
+      <c r="C138">
+        <v>0</v>
+      </c>
+      <c r="D138">
+        <v>0</v>
+      </c>
+      <c r="E138">
+        <v>0</v>
+      </c>
+      <c r="F138">
+        <v>0</v>
+      </c>
+      <c r="G138">
+        <v>0</v>
+      </c>
+      <c r="H138">
+        <v>0</v>
+      </c>
+      <c r="I138">
+        <v>0</v>
+      </c>
+      <c r="J138">
+        <v>10.1</v>
+      </c>
+      <c r="K138">
+        <v>0</v>
+      </c>
+      <c r="L138">
+        <v>0</v>
+      </c>
+      <c r="M138">
+        <v>11.9</v>
+      </c>
+      <c r="N138">
+        <v>0</v>
+      </c>
+      <c r="O138" s="2">
+        <v>2.8</v>
+      </c>
+      <c r="P138">
+        <v>0</v>
+      </c>
+      <c r="Q138">
+        <v>0</v>
+      </c>
+      <c r="R138" s="1">
+        <v>0</v>
+      </c>
+      <c r="S138" s="1">
+        <v>0</v>
+      </c>
+      <c r="T138" s="2">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="139" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A139">
+        <v>138</v>
+      </c>
+      <c r="B139" t="s">
+        <v>157</v>
+      </c>
+      <c r="C139">
+        <v>0</v>
+      </c>
+      <c r="D139">
+        <v>0</v>
+      </c>
+      <c r="E139">
+        <v>0</v>
+      </c>
+      <c r="F139">
+        <v>0</v>
+      </c>
+      <c r="G139">
+        <v>0</v>
+      </c>
+      <c r="H139">
+        <v>0</v>
+      </c>
+      <c r="I139">
+        <v>0</v>
+      </c>
+      <c r="J139">
+        <v>9.9</v>
+      </c>
+      <c r="K139">
+        <v>0</v>
+      </c>
+      <c r="L139">
+        <v>0</v>
+      </c>
+      <c r="M139">
+        <v>0</v>
+      </c>
+      <c r="N139">
+        <v>8.5</v>
+      </c>
+      <c r="O139" s="2">
+        <v>2.8</v>
+      </c>
+      <c r="P139">
+        <v>0</v>
+      </c>
+      <c r="Q139">
+        <v>0</v>
+      </c>
+      <c r="R139" s="1">
+        <v>0</v>
+      </c>
+      <c r="S139" s="1">
+        <v>0</v>
+      </c>
+      <c r="T139" s="2">
+        <v>1.9</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>